--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -230,6 +230,54 @@
   </si>
   <si>
     <t>Remove Checked-In Status in Warehouse-In form</t>
+  </si>
+  <si>
+    <t>To be aligned as per the Process and not and alphabetic order</t>
+  </si>
+  <si>
+    <t>Commodity list to be provided for Masters</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>Pre-Gatein (OTL, Lock &amp; Key, NIL)</t>
+  </si>
+  <si>
+    <t>To work on Shipper invoice currency</t>
+  </si>
+  <si>
+    <t>In Damage Check/Before Offloading change Quantity Deviation to Packages Deviation</t>
+  </si>
+  <si>
+    <t>In Damage Check/Before Offloading when Damages is not 'Nill Damage' or Quantity Devition or Ratification Process or Marks &amp; Numbers is 'No' then Status should be 'Hold'</t>
+  </si>
+  <si>
+    <t>Sridar Sir</t>
+  </si>
+  <si>
+    <t>Include camera option to upload the pics.</t>
+  </si>
+  <si>
+    <t>Fumigation Status - Inspection screen</t>
+  </si>
+  <si>
+    <t>Check Fumigation</t>
+  </si>
+  <si>
+    <t>In the inspection tab capture the weight and no of pacakages deviation</t>
+  </si>
+  <si>
+    <t>In Warehouse in tab check no of pieces is considered forstorage.</t>
+  </si>
+  <si>
+    <t>View option to be creasted for sridhar sir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSR </t>
+  </si>
+  <si>
+    <t>In storage report tab check the date formating for the check-out time</t>
   </si>
 </sst>
 </file>
@@ -1202,13 +1250,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2263,6 +2311,121 @@
       </c>
       <c r="H46" s="4"/>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H45"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -278,6 +278,37 @@
   </si>
   <si>
     <t>In storage report tab check the date formating for the check-out time</t>
+  </si>
+  <si>
+    <t>Packing Type : Wooden Case, Carton Box, Ply wood. If wooden case : Fumigation to appear. Fumigation : Yes &amp; No. Yes to be completed. No : Customer or BVM (colour code). BVM : Date to be filled and accordingly.</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Empty truck photo to be in warehouse in tab</t>
+  </si>
+  <si>
+    <t>Dimension : Multiple line items to be clubbed</t>
+  </si>
+  <si>
+    <t>Multiple MAWB &amp; HAWB to be added</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency value should match invoice. So existing process holds good. </t>
+  </si>
+  <si>
+    <t>In warehousemaster rate form, bring customer short name in drop down</t>
+  </si>
+  <si>
+    <t>In Goods report form, headers are not alinged in with content. Check in similar forms as well.</t>
+  </si>
+  <si>
+    <t>Re-Order side Nave in WMS. 
+Pre-Gate In, Warehouse Jobs, Goods Report, Dispatch, Invoice, Reports, WMS Misc.</t>
   </si>
 </sst>
 </file>
@@ -1250,13 +1281,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2312,119 +2343,392 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="D48" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+      <c r="D50" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+      <c r="D51" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+      <c r="D52" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="1" t="s">
+      <c r="D53" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
+      <c r="C54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
+      <c r="C55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
+      <c r="C56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="1" t="s">
+      <c r="C57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E57" s="25">
+        <v>44937</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="1" t="s">
+      <c r="C58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B60" s="1" t="s">
+      <c r="D59" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="C60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="25">
+        <v>44935</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="25">
+        <v>44937</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="25">
+        <v>44937</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="25">
+        <v>44937</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="25">
+        <v>44937</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="25">
+        <v>44938</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="25">
+        <v>44938</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="25">
+        <v>44938</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H45"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -15,14 +15,14 @@
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$H$67</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1284,10 +1284,10 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2357,7 +2357,9 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2375,7 +2377,9 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -2393,7 +2397,9 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2433,7 +2439,9 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2451,7 +2459,9 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -2469,7 +2479,9 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2487,7 +2499,9 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -2505,7 +2519,9 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2523,7 +2539,9 @@
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2545,7 +2563,7 @@
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="4"/>
@@ -2565,7 +2583,9 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -2583,7 +2603,9 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2601,7 +2623,9 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -2619,7 +2643,9 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -2637,7 +2663,9 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2655,7 +2683,9 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -2673,7 +2703,9 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2691,7 +2723,9 @@
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2709,7 +2743,9 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2725,13 +2761,19 @@
       <c r="D67" s="25">
         <v>44938</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="E67" s="25">
+        <v>44938</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="H67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H45"/>
+  <autoFilter ref="A1:H67"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -15,14 +15,14 @@
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="105">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -268,9 +268,6 @@
     <t>In the inspection tab capture the weight and no of pacakages deviation</t>
   </si>
   <si>
-    <t>In Warehouse in tab check no of pieces is considered forstorage.</t>
-  </si>
-  <si>
     <t>View option to be creasted for sridhar sir</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>In storage report tab check the date formating for the check-out time</t>
-  </si>
-  <si>
-    <t>Packing Type : Wooden Case, Carton Box, Ply wood. If wooden case : Fumigation to appear. Fumigation : Yes &amp; No. Yes to be completed. No : Customer or BVM (colour code). BVM : Date to be filled and accordingly.</t>
   </si>
   <si>
     <t>Prakash</t>
@@ -309,6 +303,42 @@
   <si>
     <t>Re-Order side Nave in WMS. 
 Pre-Gate In, Warehouse Jobs, Goods Report, Dispatch, Invoice, Reports, WMS Misc.</t>
+  </si>
+  <si>
+    <t>In Stock Value report, round off total to 2 decimal places.</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>In Gate-In Form, don’t show pre-gatein ID's for checked out jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packing Type : Wooden Case, Carton Box, Ply wood. If wooden case : Fumigation to appear. Fumigation : Yes &amp; No. Yes to be completed. No : Customer or BVM (colour code). BVM : Date to be filled and accordingly. If fumigation done by BVM then, the cost should be included in billing. </t>
+  </si>
+  <si>
+    <t>Billing for fumigation alone pending</t>
+  </si>
+  <si>
+    <t>Already available in "Damage Check Before/Offloading" orm</t>
+  </si>
+  <si>
+    <t>In Warehouse in tab check no of pieces is considered for storage.</t>
+  </si>
+  <si>
+    <t>Retaining "Work In Progress" instead of hold.</t>
+  </si>
+  <si>
+    <t>Retaining "Quantity Deviation" instead of "Package Deviation"</t>
+  </si>
+  <si>
+    <t>WMS dashboard: Pending for invoice and bring reports to WH dashboard</t>
+  </si>
+  <si>
+    <t>In invoice, partial billing to be calculated.</t>
+  </si>
+  <si>
+    <t>In WMS dashboard, show goods older than 7 days</t>
   </si>
 </sst>
 </file>
@@ -457,7 +487,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,6 +688,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +931,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -958,6 +1000,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,13 +1329,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2417,11 +2465,11 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
-        <v>90</v>
+      <c r="G50" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2439,10 +2487,12 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="4"/>
+      <c r="G51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -2459,10 +2509,12 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H52" s="4"/>
+      <c r="G52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -2499,8 +2551,8 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
-        <v>49</v>
+      <c r="G54" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H54" s="4"/>
     </row>
@@ -2519,8 +2571,8 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>49</v>
+      <c r="G55" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H55" s="4"/>
     </row>
@@ -2549,7 +2601,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -2573,7 +2625,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>76</v>
@@ -2593,7 +2645,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>71</v>
@@ -2613,7 +2665,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>76</v>
@@ -2623,20 +2675,20 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
-        <v>49</v>
+      <c r="G60" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D61" s="25">
         <v>44937</v>
@@ -2644,19 +2696,21 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H61" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D62" s="25">
         <v>44937</v>
@@ -2668,35 +2722,37 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D63" s="25">
         <v>44937</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="4"/>
+      <c r="G63" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" s="25">
         <v>44937</v>
@@ -2713,7 +2769,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>67</v>
@@ -2733,7 +2789,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>67</v>
@@ -2743,8 +2799,8 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3" t="s">
-        <v>49</v>
+      <c r="G66" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="H66" s="4"/>
     </row>
@@ -2753,7 +2809,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>67</v>
@@ -2772,8 +2828,104 @@
       </c>
       <c r="H67" s="4"/>
     </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="25">
+        <v>44938</v>
+      </c>
+      <c r="E68" s="25">
+        <v>44938</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="25">
+        <v>44939</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="25">
+        <v>44940</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="25">
+        <v>44940</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="25">
+        <v>44940</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H67"/>
+  <autoFilter ref="A1:H69"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1970" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
+    <sheet name="Expense" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$I$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -339,13 +340,151 @@
   </si>
   <si>
     <t>In WMS dashboard, show goods older than 7 days</t>
+  </si>
+  <si>
+    <t>Add total invoice weight in inspection sheet. Entering weight for each box is not feasible.</t>
+  </si>
+  <si>
+    <t>Check INR Calculation</t>
+  </si>
+  <si>
+    <t>Add PO number</t>
+  </si>
+  <si>
+    <t>Check chargable weight and CBM calcualtion</t>
+  </si>
+  <si>
+    <t>Prepare sock reprot as per DSR shared by venkat</t>
+  </si>
+  <si>
+    <t>Bug/Improvement?</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>VENDOR BILL NO</t>
+  </si>
+  <si>
+    <t>VENDOR BILL DATE</t>
+  </si>
+  <si>
+    <t>UNIT OF MEASUREMENT</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>GST RATE %</t>
+  </si>
+  <si>
+    <t>GST AMOUNT</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT</t>
+  </si>
+  <si>
+    <t>TDS RATE %</t>
+  </si>
+  <si>
+    <t>TDS AMOUNT</t>
+  </si>
+  <si>
+    <t>AMOUNT PAYABLE</t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t>PAID DATE</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>Sqt</t>
+  </si>
+  <si>
+    <t>amount*tds rate</t>
+  </si>
+  <si>
+    <t>tot amount-tds amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bill date +vendor payment (check vendor database) </t>
+  </si>
+  <si>
+    <t>Service Start Date</t>
+  </si>
+  <si>
+    <t>Service End Date</t>
+  </si>
+  <si>
+    <t>Man power</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>EXPENSE Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +625,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -704,7 +849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -886,6 +1031,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -931,7 +1104,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,6 +1179,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,26 +1510,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="2"/>
-    <col min="2" max="2" width="53.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="22.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="53.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="22.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1362,19 +1543,22 @@
         <v>63</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1387,18 +1571,19 @@
       <c r="D2" s="18">
         <v>44828</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18">
         <v>44927</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1411,16 +1596,17 @@
       <c r="D3" s="18">
         <v>44828</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1433,18 +1619,19 @@
       <c r="D4" s="18">
         <v>44828</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
         <v>44927</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1457,16 +1644,17 @@
       <c r="D5" s="18">
         <v>44828</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1479,18 +1667,19 @@
       <c r="D6" s="18">
         <v>44828</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
         <v>44927</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1503,16 +1692,17 @@
       <c r="D7" s="18">
         <v>44828</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1525,18 +1715,19 @@
       <c r="D8" s="18">
         <v>44828</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>44927</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1549,18 +1740,19 @@
       <c r="D9" s="18">
         <v>44828</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>44927</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1573,14 +1765,15 @@
       <c r="D10" s="18">
         <v>44828</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1593,14 +1786,15 @@
       <c r="D11" s="18">
         <v>44828</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1613,14 +1807,15 @@
       <c r="D12" s="18">
         <v>44828</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1633,18 +1828,19 @@
       <c r="D13" s="18">
         <v>44828</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
         <v>44927</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1657,16 +1853,17 @@
       <c r="D14" s="18">
         <v>44828</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1679,14 +1876,15 @@
       <c r="D15" s="18">
         <v>44828</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1699,18 +1897,19 @@
       <c r="D16" s="18">
         <v>44828</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18">
         <v>44927</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1723,14 +1922,15 @@
       <c r="D17" s="18">
         <v>44828</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1743,18 +1943,19 @@
       <c r="D18" s="18">
         <v>44828</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18">
         <v>44927</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1767,18 +1968,19 @@
       <c r="D19" s="18">
         <v>44828</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18">
         <v>44927</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1791,18 +1993,19 @@
       <c r="D20" s="18">
         <v>44828</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
         <v>44927</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1815,14 +2018,15 @@
       <c r="D21" s="18">
         <v>44828</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1835,14 +2039,15 @@
       <c r="D22" s="18">
         <v>44828</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1855,14 +2060,15 @@
       <c r="D23" s="18">
         <v>44828</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1875,18 +2081,19 @@
       <c r="D24" s="18">
         <v>44828</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18">
         <v>44927</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1899,16 +2106,17 @@
       <c r="D25" s="18">
         <v>44828</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1921,18 +2129,19 @@
       <c r="D26" s="18">
         <v>44828</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18">
         <v>44927</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1945,18 +2154,19 @@
       <c r="D27" s="18">
         <v>44828</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18">
         <v>44927</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1969,16 +2179,17 @@
       <c r="D28" s="18">
         <v>44828</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1991,18 +2202,19 @@
       <c r="D29" s="18">
         <v>44828</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18">
         <v>44927</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2015,18 +2227,19 @@
       <c r="D30" s="18">
         <v>44828</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18">
         <v>44927</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2039,18 +2252,19 @@
       <c r="D31" s="18">
         <v>44828</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18">
         <v>44927</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2063,20 +2277,21 @@
       <c r="D32" s="18">
         <v>44828</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18">
         <v>44927</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2089,18 +2304,19 @@
       <c r="D33" s="18">
         <v>44828</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18">
         <v>44927</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2113,18 +2329,19 @@
       <c r="D34" s="18">
         <v>44828</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18">
         <v>44927</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2137,18 +2354,19 @@
       <c r="D35" s="18">
         <v>44828</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="18"/>
+      <c r="F35" s="18">
         <v>44927</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2161,18 +2379,19 @@
       <c r="D36" s="18">
         <v>44828</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18">
         <v>44927</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2185,18 +2404,19 @@
       <c r="D37" s="18">
         <v>44828</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18">
         <v>44927</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2209,18 +2429,19 @@
       <c r="D38" s="18">
         <v>44828</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18">
         <v>44927</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2233,20 +2454,21 @@
       <c r="D39" s="18">
         <v>44828</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18">
         <v>44927</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2259,16 +2481,17 @@
       <c r="D40" s="18">
         <v>44828</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2281,16 +2504,17 @@
       <c r="D41" s="18">
         <v>44828</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2303,14 +2527,15 @@
       <c r="D42" s="18">
         <v>44828</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2323,14 +2548,15 @@
       <c r="D43" s="18">
         <v>44828</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -2343,14 +2569,15 @@
       <c r="D44" s="21">
         <v>44828</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="19"/>
+      <c r="H44" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -2363,14 +2590,15 @@
       <c r="D45" s="21">
         <v>44917</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="19"/>
+      <c r="H45" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2383,14 +2611,15 @@
       <c r="D46" s="25">
         <v>44933</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2403,14 +2632,15 @@
       <c r="D47" s="25">
         <v>44935</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2423,14 +2653,15 @@
       <c r="D48" s="25">
         <v>44935</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2443,14 +2674,15 @@
       <c r="D49" s="25">
         <v>44935</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2463,16 +2695,17 @@
       <c r="D50" s="25">
         <v>44935</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2485,16 +2718,17 @@
       <c r="D51" s="25">
         <v>44935</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2507,16 +2741,17 @@
       <c r="D52" s="25">
         <v>44935</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2529,14 +2764,15 @@
       <c r="D53" s="25">
         <v>44935</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2549,14 +2785,15 @@
       <c r="D54" s="25">
         <v>44935</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="3"/>
+      <c r="H54" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2569,14 +2806,15 @@
       <c r="D55" s="25">
         <v>44935</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2589,14 +2827,15 @@
       <c r="D56" s="25">
         <v>44935</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2609,18 +2848,19 @@
       <c r="D57" s="25">
         <v>44935</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="25"/>
+      <c r="F57" s="25">
         <v>44937</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2633,14 +2873,15 @@
       <c r="D58" s="25">
         <v>44935</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2653,14 +2894,15 @@
       <c r="D59" s="25">
         <v>44935</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="25"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2673,14 +2915,15 @@
       <c r="D60" s="25">
         <v>44935</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="3"/>
+      <c r="H60" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2693,16 +2936,17 @@
       <c r="D61" s="25">
         <v>44937</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2715,14 +2959,15 @@
       <c r="D62" s="25">
         <v>44937</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2735,16 +2980,17 @@
       <c r="D63" s="25">
         <v>44937</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="27" t="s">
+      <c r="G63" s="3"/>
+      <c r="H63" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2757,14 +3003,15 @@
       <c r="D64" s="25">
         <v>44937</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2777,14 +3024,15 @@
       <c r="D65" s="25">
         <v>44938</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="25"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2797,14 +3045,15 @@
       <c r="D66" s="25">
         <v>44938</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="3"/>
+      <c r="H66" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2817,18 +3066,19 @@
       <c r="D67" s="25">
         <v>44938</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="25"/>
+      <c r="F67" s="25">
         <v>44938</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2841,18 +3091,19 @@
       <c r="D68" s="25">
         <v>44938</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="25"/>
+      <c r="F68" s="25">
         <v>44938</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2865,12 +3116,17 @@
       <c r="D69" s="25">
         <v>44939</v>
       </c>
-      <c r="E69" s="3"/>
+      <c r="E69" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2883,12 +3139,17 @@
       <c r="D70" s="25">
         <v>44940</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="E70" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2901,12 +3162,17 @@
       <c r="D71" s="25">
         <v>44940</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2919,14 +3185,335 @@
       <c r="D72" s="25">
         <v>44940</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="25">
+        <v>44944</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="25">
+        <v>44944</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" s="25">
+        <v>44945</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="25">
+        <v>44944</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="25">
+        <v>44944</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="25">
+        <v>44944</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="25">
+        <v>44944</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I77" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H69"/>
+  <autoFilter ref="A1:I69"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R8:R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="29">
+        <v>0.18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="154">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>EXPENSE Type</t>
+  </si>
+  <si>
+    <t>To be discussed with Sridhar Sir</t>
+  </si>
+  <si>
+    <t>In inspection form, Add goods count &amp; weight comparison between invoice and check-In</t>
+  </si>
+  <si>
+    <t>Since pre-gatein number linked to multiple WH jobs, its not possible to remove from list.</t>
   </si>
 </sst>
 </file>
@@ -1510,13 +1519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2915,9 +2924,15 @@
       <c r="D60" s="25">
         <v>44935</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="E60" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="25">
+        <v>44940</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H60" s="9" t="s">
         <v>45</v>
       </c>
@@ -2936,11 +2951,17 @@
       <c r="D61" s="25">
         <v>44937</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>94</v>
+      <c r="E61" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="25">
+        <v>44940</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>97</v>
@@ -3091,7 +3112,9 @@
       <c r="D68" s="25">
         <v>44938</v>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="F68" s="25">
         <v>44938</v>
       </c>
@@ -3103,7 +3126,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3121,10 +3144,12 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I69" s="4"/>
+      <c r="H69" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -3213,10 +3238,12 @@
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I73" s="4"/>
+      <c r="H73" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
@@ -3261,10 +3288,14 @@
       <c r="E75" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
-        <v>49</v>
+      <c r="F75" s="25">
+        <v>44951</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="I75" s="4"/>
     </row>
@@ -3317,6 +3348,32 @@
         <v>49</v>
       </c>
       <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="25">
+        <v>44951</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="25">
+        <v>44951</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I69"/>
@@ -3329,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R8:R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Since pre-gatein number linked to multiple WH jobs, its not possible to remove from list.</t>
+  </si>
+  <si>
+    <t>In Inspection form, check-In weight and count throwing round off error</t>
   </si>
 </sst>
 </file>
@@ -1519,13 +1522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3353,10 +3356,10 @@
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="25">
@@ -3374,6 +3377,32 @@
       <c r="H78" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="25">
+        <v>44953</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" s="25">
+        <v>44953</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I69"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="157">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>In Inspection form, check-In weight and count throwing round off error</t>
+  </si>
+  <si>
+    <t>In inspection form, remove validation for excess weight</t>
+  </si>
+  <si>
+    <t>Once Dispatch status is completed, update Dispatch status t "Yes" in gatein table database</t>
   </si>
 </sst>
 </file>
@@ -1522,13 +1528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3380,7 +3386,9 @@
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
       <c r="B79" s="5" t="s">
         <v>154</v>
       </c>
@@ -3403,6 +3411,56 @@
         <v>45</v>
       </c>
       <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="25">
+        <v>44956</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" s="25">
+        <v>44957</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="25">
+        <v>44956</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I69"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
     <sheet name="Expense" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$I$69</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="175">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -496,6 +497,60 @@
   </si>
   <si>
     <t>Once Dispatch status is completed, update Dispatch status t "Yes" in gatein table database</t>
+  </si>
+  <si>
+    <t>Audit Module for TMS WMS PMS - Audit Manual, checklist, score card and reports</t>
+  </si>
+  <si>
+    <t>Sridhar</t>
+  </si>
+  <si>
+    <t>Sridhar sir to provide detailed requirement.</t>
+  </si>
+  <si>
+    <t>Sales Management System (SMS)</t>
+  </si>
+  <si>
+    <t>Sony to provide more details.</t>
+  </si>
+  <si>
+    <t>Budget Master to be created</t>
+  </si>
+  <si>
+    <t>In expense add form, service start and end date to be same</t>
+  </si>
+  <si>
+    <t>Check remarks field for Inward, storage and dispatch</t>
+  </si>
+  <si>
+    <t>Insurance Module to be changed</t>
+  </si>
+  <si>
+    <t>Income Master line item to be defined</t>
+  </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>PMS</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1177,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,6 +1261,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1528,13 +1589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,7 +1605,7 @@
     <col min="3" max="3" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="22.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3455,12 +3516,189 @@
       <c r="E81" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3" t="s">
-        <v>94</v>
+      <c r="F81" s="25">
+        <v>44957</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="25">
+        <v>44960</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="25">
+        <v>44960</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="25">
+        <v>44960</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" s="25">
+        <v>44960</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="25">
+        <v>44960</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="25">
+        <v>44960</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" s="25">
+        <v>44960</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I69"/>
@@ -3660,4 +3898,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="175">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1591,11 +1591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3593,10 +3593,14 @@
       <c r="E84" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3" t="s">
-        <v>49</v>
+      <c r="F84" s="25">
+        <v>44968</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>161</v>
@@ -3904,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="176">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>In Dispatch form, increase text field size</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1132,6 +1135,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1177,7 +1221,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1268,6 +1312,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1589,13 +1655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3681,28 +3747,55 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="19">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D88" s="25">
+      <c r="D88" s="34">
         <v>44960</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3" t="s">
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I88" s="4"/>
+      <c r="I88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="35">
+        <v>88</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="38">
+        <v>44973</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="38">
+        <v>44973</v>
+      </c>
+      <c r="G89" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I89" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I69"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -17,22 +17,19 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$I$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="189">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
   <si>
     <t>Sl No</t>
-  </si>
-  <si>
-    <t>Rdescription</t>
   </si>
   <si>
     <t>Owner</t>
@@ -554,6 +551,48 @@
   </si>
   <si>
     <t>In Dispatch form, increase text field size</t>
+  </si>
+  <si>
+    <t>Create route master</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>In Trip details, move 'Delivery Image' and 'Proof Of Delivery' to Trip closure.</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>In Vehicle master, vehicle details, enginer number should be alpha numberic</t>
+  </si>
+  <si>
+    <t>In Vehicle master, vehicle details battery number should be alpha numberic</t>
+  </si>
+  <si>
+    <t>In Vehicle master, insurance details insurance copy should be attachable</t>
+  </si>
+  <si>
+    <t>In Vehicle master, RTO details FC copy should be attachable</t>
+  </si>
+  <si>
+    <t>In Vehicle master, RTO details Road Tax copy should be attachable</t>
+  </si>
+  <si>
+    <t>In Vehicle master, Permit and pollution control details permit copy should be attachable</t>
+  </si>
+  <si>
+    <t>In Vehicle master, Permit and pollution control details pollution certificate copy should be attachable</t>
+  </si>
+  <si>
+    <t>In vendor add form, GSTIN number set size  to 15</t>
   </si>
 </sst>
 </file>
@@ -1136,29 +1175,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1168,12 +1192,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1312,28 +1341,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1655,2150 +1684,2678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="53.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="22.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="22.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="C2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="18">
         <v>44828</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18">
         <v>44927</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="18">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="18">
         <v>44828</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="11"/>
+      <c r="I3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="18">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="18">
         <v>44828</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
         <v>44927</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="18">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="18">
         <v>44828</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="11"/>
+      <c r="I5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="18">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="18">
         <v>44828</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
         <v>44927</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="18">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="18">
         <v>44828</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="18">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="18">
         <v>44828</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>44927</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="18">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="18">
         <v>44828</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>44927</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="18">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="18">
         <v>44828</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="18">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="18">
         <v>44828</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="18">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="18">
         <v>44828</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="18">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="18">
         <v>44828</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
         <v>44927</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="18">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="18">
         <v>44828</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="18">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="18">
         <v>44828</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="18">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="18">
         <v>44828</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
         <v>44927</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="18">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="18">
         <v>44828</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="18">
         <v>44828</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <v>44927</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="18">
+        <v>19</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="18">
         <v>44828</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
         <v>44927</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="18">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="18">
         <v>44828</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <v>44927</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="18">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="18">
         <v>44828</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="18">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="18">
         <v>44828</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="18">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="18">
         <v>44828</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="18">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="18">
         <v>44828</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <v>44927</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="18">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="18">
         <v>44828</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="18">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="18">
         <v>44828</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <v>44927</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="18">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="18">
         <v>44828</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
         <v>44927</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="18">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="18">
         <v>44828</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="18">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="18">
         <v>44828</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18">
         <v>44927</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="18">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="18">
         <v>44828</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
         <v>44927</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="18">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="18">
         <v>44828</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
         <v>44927</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="18">
+        <v>31</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="18">
         <v>44828</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18">
+      <c r="F32" s="18"/>
+      <c r="G32" s="18">
         <v>44927</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="18">
+        <v>32</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="18">
         <v>44828</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18">
         <v>44927</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="18">
+        <v>33</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="18">
         <v>44828</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18">
         <v>44927</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="18">
+        <v>34</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="18">
         <v>44828</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18">
         <v>44927</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H35" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="18">
+        <v>35</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="18">
         <v>44828</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18">
+      <c r="F36" s="18"/>
+      <c r="G36" s="18">
         <v>44927</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="18">
+        <v>36</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="18">
         <v>44828</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18">
         <v>44927</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="18">
+        <v>37</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="18">
         <v>44828</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18">
+      <c r="F38" s="18"/>
+      <c r="G38" s="18">
         <v>44927</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="18">
+        <v>38</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="18">
         <v>44828</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18">
+      <c r="F39" s="18"/>
+      <c r="G39" s="18">
         <v>44927</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="18">
+        <v>39</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="18">
         <v>44828</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H40" s="3"/>
+      <c r="I40" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="18">
+        <v>40</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="18">
         <v>44828</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H41" s="3"/>
+      <c r="I41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="18">
+        <v>41</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="18">
         <v>44828</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="3"/>
+      <c r="I42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="18">
+        <v>42</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="18">
         <v>44828</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="3"/>
+      <c r="I43" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="21">
+        <v>59</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="21">
         <v>44828</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="19"/>
+      <c r="I44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="21">
+        <v>60</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="21">
         <v>44917</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="19"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="19"/>
+      <c r="I45" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="25">
+        <v>67</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="25">
         <v>44933</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="25">
+        <v>68</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="25">
         <v>44935</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="25">
+      <c r="E48" s="25">
         <v>44935</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="25">
+        <v>71</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="25">
         <v>44935</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="25">
+        <v>72</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="25">
         <v>44935</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="25">
+        <v>73</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="25">
         <v>44935</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H51" s="3"/>
+      <c r="I51" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="25">
+      <c r="E52" s="25">
         <v>44935</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="3"/>
+      <c r="I52" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="25">
+      <c r="C53" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="25">
         <v>44935</v>
       </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="25">
+        <v>77</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="25">
         <v>44935</v>
       </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="3"/>
+      <c r="I54" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="25">
+        <v>78</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="25">
         <v>44935</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H55" s="3"/>
+      <c r="I55" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="25">
+        <v>79</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="25">
         <v>44935</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="25">
+        <v>98</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="25">
         <v>44935</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25">
+      <c r="F57" s="25"/>
+      <c r="G57" s="25">
         <v>44937</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="25">
+        <v>80</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="25">
         <v>44935</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="25">
+        <v>81</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="25">
         <v>44935</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="25">
+        <v>82</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="25">
         <v>44935</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F60" s="25">
+      <c r="F60" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" s="25">
         <v>44940</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="25">
+        <v>44937</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" s="25">
+        <v>44940</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="25">
-        <v>44937</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="25">
-        <v>44940</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="25">
+        <v>85</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="25">
         <v>44937</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="25">
+      <c r="C63" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="25">
         <v>44937</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H63" s="3"/>
+      <c r="I63" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="25">
+        <v>86</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="25">
         <v>44937</v>
       </c>
-      <c r="E64" s="25"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="25">
+        <v>89</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="25">
         <v>44938</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="25">
+        <v>90</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="25">
         <v>44938</v>
       </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H66" s="3"/>
+      <c r="I66" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="25">
+        <v>91</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="25">
         <v>44938</v>
       </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25">
+      <c r="F67" s="25"/>
+      <c r="G67" s="25">
         <v>44938</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="25">
+        <v>92</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="25">
         <v>44938</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F68" s="25">
+      <c r="F68" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68" s="25">
         <v>44938</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="25">
+        <v>94</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="25">
         <v>44939</v>
       </c>
-      <c r="E69" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H69" s="3"/>
+      <c r="I69" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" s="25">
+        <v>101</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="25">
         <v>44940</v>
       </c>
-      <c r="E70" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="25">
+        <v>102</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="25">
         <v>44940</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="25">
+        <v>103</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="25">
         <v>44940</v>
       </c>
-      <c r="E72" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="25">
+        <v>104</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="25">
         <v>44944</v>
       </c>
-      <c r="E73" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H73" s="3"/>
+      <c r="I73" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="25">
+        <v>105</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="25">
         <v>44944</v>
       </c>
-      <c r="E74" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F74" s="25">
+      <c r="F74" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="25">
         <v>44945</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="25">
+        <v>106</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="25">
         <v>44944</v>
       </c>
-      <c r="E75" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" s="25">
+      <c r="F75" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="25">
         <v>44951</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="25">
+        <v>107</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="25">
         <v>44944</v>
       </c>
-      <c r="E76" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F76" s="25">
+      <c r="F76" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G76" s="25">
         <v>44944</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="25">
+        <v>108</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="25">
         <v>44944</v>
       </c>
-      <c r="E77" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G77" s="3"/>
-      <c r="H77" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="25">
+        <v>151</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="25">
         <v>44951</v>
       </c>
-      <c r="E78" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="25">
+      <c r="F78" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G78" s="25">
         <v>44951</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="25">
+        <v>153</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="25">
         <v>44953</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F79" s="25">
+      <c r="F79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G79" s="25">
         <v>44953</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="25">
+        <v>154</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="25">
         <v>44956</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F80" s="25">
+      <c r="F80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="25">
         <v>44957</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="25">
+        <v>155</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="25">
         <v>44956</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="25">
+      <c r="F81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="25">
         <v>44957</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="E82" s="25">
+        <v>44960</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="25">
-        <v>44960</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" s="25">
+        <v>44960</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="25">
-        <v>44960</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D84" s="25">
+        <v>164</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="25">
         <v>44960</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F84" s="25">
+      <c r="F84" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" s="25">
         <v>44968</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D85" s="25">
+        <v>161</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E85" s="25">
         <v>44960</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="25">
+        <v>162</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="25">
         <v>44960</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="G86" s="3"/>
-      <c r="H86" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="25">
+        <v>165</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" s="25">
         <v>44960</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="G87" s="3"/>
-      <c r="H87" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="19">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D88" s="34">
+      <c r="B88" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="25">
         <v>44960</v>
       </c>
-      <c r="E88" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F88" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="35">
         <v>88</v>
       </c>
       <c r="B89" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="39">
+        <v>44973</v>
+      </c>
+      <c r="F89" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" s="39">
+        <v>44973</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="38">
-        <v>44973</v>
-      </c>
-      <c r="E89" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F89" s="38">
-        <v>44973</v>
-      </c>
-      <c r="G89" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I89" s="41"/>
+      <c r="C90" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E99" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I69"/>
+  <autoFilter ref="A1:J69"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3837,159 +4394,159 @@
   <sheetData>
     <row r="1" spans="1:21" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
       </c>
-      <c r="H2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>135</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>136</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" t="s">
         <v>137</v>
       </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
         <v>137</v>
-      </c>
-      <c r="O2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>137</v>
-      </c>
-      <c r="R2" t="s">
-        <v>137</v>
-      </c>
-      <c r="S2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N3" s="29">
         <v>0.18</v>
       </c>
       <c r="R3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" t="s">
         <v>142</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>143</v>
-      </c>
-      <c r="T3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4009,28 +4566,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>173</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
     <sheet name="Expense" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Project_Progress" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$69</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -511,9 +511,6 @@
     <t>Sony to provide more details.</t>
   </si>
   <si>
-    <t>Budget Master to be created</t>
-  </si>
-  <si>
     <t>In expense add form, service start and end date to be same</t>
   </si>
   <si>
@@ -593,6 +590,18 @@
   </si>
   <si>
     <t>In vendor add form, GSTIN number set size  to 15</t>
+  </si>
+  <si>
+    <t>In Expense add form, split total bills into multiple line items.</t>
+  </si>
+  <si>
+    <t>Blessy</t>
+  </si>
+  <si>
+    <t>Budget Master to be created. Branch,Unit, Expnse type, amount, month</t>
+  </si>
+  <si>
+    <t>In Vehicle master, change ICV to IDV</t>
   </si>
 </sst>
 </file>
@@ -1684,13 +1693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomRight" activeCell="G101" sqref="G101:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -1744,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>65</v>
@@ -1772,7 +1781,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>65</v>
@@ -1798,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>65</v>
@@ -1826,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>65</v>
@@ -1852,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>65</v>
@@ -1880,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>65</v>
@@ -1906,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>65</v>
@@ -1934,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>65</v>
@@ -1962,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>65</v>
@@ -1986,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>65</v>
@@ -2010,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>65</v>
@@ -2034,7 +2043,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>65</v>
@@ -2062,7 +2071,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>65</v>
@@ -2088,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>65</v>
@@ -2112,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>65</v>
@@ -2140,7 +2149,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>65</v>
@@ -2164,7 +2173,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>65</v>
@@ -2192,7 +2201,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>65</v>
@@ -2220,7 +2229,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>65</v>
@@ -2248,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>65</v>
@@ -2272,7 +2281,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>65</v>
@@ -2296,7 +2305,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>65</v>
@@ -2320,7 +2329,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>65</v>
@@ -2348,7 +2357,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>65</v>
@@ -2374,7 +2383,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>65</v>
@@ -2402,7 +2411,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>65</v>
@@ -2430,7 +2439,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>65</v>
@@ -2456,7 +2465,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>65</v>
@@ -2484,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>65</v>
@@ -2512,7 +2521,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>65</v>
@@ -2540,7 +2549,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>65</v>
@@ -2570,7 +2579,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>65</v>
@@ -2598,7 +2607,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>65</v>
@@ -2626,7 +2635,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>65</v>
@@ -2654,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>65</v>
@@ -2682,7 +2691,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>65</v>
@@ -2710,7 +2719,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>65</v>
@@ -2738,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>65</v>
@@ -2768,7 +2777,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>65</v>
@@ -2794,7 +2803,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>65</v>
@@ -2820,7 +2829,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>65</v>
@@ -2844,7 +2853,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>65</v>
@@ -2868,7 +2877,7 @@
         <v>59</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>65</v>
@@ -2892,7 +2901,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>66</v>
@@ -2916,7 +2925,7 @@
         <v>67</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>3</v>
@@ -2940,7 +2949,7 @@
         <v>68</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
@@ -2964,7 +2973,7 @@
         <v>69</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>70</v>
@@ -2988,7 +2997,7 @@
         <v>71</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
@@ -3012,7 +3021,7 @@
         <v>72</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>75</v>
@@ -3038,7 +3047,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>75</v>
@@ -3064,7 +3073,7 @@
         <v>74</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>75</v>
@@ -3090,7 +3099,7 @@
         <v>76</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>75</v>
@@ -3114,7 +3123,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>75</v>
@@ -3138,7 +3147,7 @@
         <v>78</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>75</v>
@@ -3162,7 +3171,7 @@
         <v>79</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>75</v>
@@ -3186,7 +3195,7 @@
         <v>98</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
@@ -3214,7 +3223,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>75</v>
@@ -3238,7 +3247,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>70</v>
@@ -3262,7 +3271,7 @@
         <v>82</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>75</v>
@@ -3292,7 +3301,7 @@
         <v>95</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>83</v>
@@ -3324,7 +3333,7 @@
         <v>85</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>83</v>
@@ -3348,7 +3357,7 @@
         <v>84</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>83</v>
@@ -3374,7 +3383,7 @@
         <v>86</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>83</v>
@@ -3398,7 +3407,7 @@
         <v>89</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>66</v>
@@ -3422,7 +3431,7 @@
         <v>90</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>66</v>
@@ -3446,7 +3455,7 @@
         <v>91</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>66</v>
@@ -3474,7 +3483,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>3</v>
@@ -3504,7 +3513,7 @@
         <v>94</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>3</v>
@@ -3532,7 +3541,7 @@
         <v>101</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>66</v>
@@ -3558,7 +3567,7 @@
         <v>102</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>66</v>
@@ -3584,7 +3593,7 @@
         <v>103</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>66</v>
@@ -3610,7 +3619,7 @@
         <v>104</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>70</v>
@@ -3638,7 +3647,7 @@
         <v>105</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>70</v>
@@ -3668,7 +3677,7 @@
         <v>106</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>70</v>
@@ -3698,7 +3707,7 @@
         <v>107</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>70</v>
@@ -3728,7 +3737,7 @@
         <v>108</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>70</v>
@@ -3754,7 +3763,7 @@
         <v>151</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>3</v>
@@ -3784,7 +3793,7 @@
         <v>153</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>83</v>
@@ -3814,7 +3823,7 @@
         <v>154</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>83</v>
@@ -3844,7 +3853,7 @@
         <v>155</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>83</v>
@@ -3874,7 +3883,7 @@
         <v>156</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>157</v>
@@ -3902,7 +3911,7 @@
         <v>159</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>157</v>
@@ -3927,10 +3936,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>157</v>
@@ -3954,15 +3963,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>157</v>
@@ -3987,10 +3996,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>157</v>
@@ -4015,10 +4024,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>157</v>
@@ -4043,10 +4052,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>157</v>
@@ -4069,10 +4078,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>83</v>
@@ -4099,10 +4108,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>66</v>
@@ -4111,7 +4120,7 @@
         <v>44975</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -4125,10 +4134,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>66</v>
@@ -4137,7 +4146,7 @@
         <v>44975</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -4151,24 +4160,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E92" s="25">
         <v>44975</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3" t="s">
-        <v>48</v>
+        <v>177</v>
+      </c>
+      <c r="G92" s="25">
+        <v>44975</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="J92" s="4"/>
     </row>
@@ -4177,24 +4190,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E93" s="25">
         <v>44975</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3" t="s">
-        <v>48</v>
+        <v>177</v>
+      </c>
+      <c r="G93" s="25">
+        <v>44975</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="J93" s="4"/>
     </row>
@@ -4203,19 +4220,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E94" s="25">
         <v>44975</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -4229,19 +4246,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E95" s="25">
         <v>44975</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -4255,19 +4272,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E96" s="25">
         <v>44975</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -4281,19 +4298,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E97" s="25">
         <v>44975</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -4307,19 +4324,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E98" s="25">
         <v>44975</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -4333,26 +4350,76 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E99" s="25">
         <v>44975</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3" t="s">
-        <v>48</v>
+        <v>177</v>
+      </c>
+      <c r="G99" s="25">
+        <v>44975</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="25">
+        <v>44975</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G101" s="25">
+        <v>44975</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J69"/>
@@ -4559,35 +4626,35 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>172</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="191">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -557,9 +557,6 @@
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t>Requirement</t>
   </si>
   <si>
     <t>In Trip details, move 'Delivery Image' and 'Proof Of Delivery' to Trip closure.</t>
@@ -1696,10 +1693,10 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G101" sqref="G101:I101"/>
+      <selection pane="bottomRight" activeCell="F90" sqref="F90:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3968,7 +3965,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>165</v>
@@ -4119,8 +4116,8 @@
       <c r="E90" s="25">
         <v>44975</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>177</v>
+      <c r="F90" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -4134,7 +4131,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>166</v>
@@ -4145,8 +4142,8 @@
       <c r="E91" s="25">
         <v>44975</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>177</v>
+      <c r="F91" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -4160,19 +4157,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E92" s="25">
         <v>44975</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>177</v>
+      <c r="F92" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G92" s="25">
         <v>44975</v>
@@ -4190,19 +4187,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E93" s="25">
         <v>44975</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>177</v>
+      <c r="F93" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G93" s="25">
         <v>44975</v>
@@ -4220,19 +4217,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E94" s="25">
         <v>44975</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>177</v>
+      <c r="F94" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -4246,19 +4243,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E95" s="25">
         <v>44975</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>177</v>
+      <c r="F95" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -4272,19 +4269,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E96" s="25">
         <v>44975</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>177</v>
+      <c r="F96" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -4298,19 +4295,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E97" s="25">
         <v>44975</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>177</v>
+      <c r="F97" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -4324,19 +4321,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" s="25">
         <v>44975</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>177</v>
+      <c r="F98" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -4350,19 +4347,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E99" s="25">
         <v>44975</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>177</v>
+      <c r="F99" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G99" s="25">
         <v>44975</v>
@@ -4380,36 +4377,39 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E100" s="25">
         <v>44975</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>177</v>
+      <c r="F100" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
       <c r="B101" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E101" s="25">
         <v>44975</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>177</v>
+      <c r="F101" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G101" s="25">
         <v>44975</v>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Project_Progress" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$119</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="208">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -599,6 +599,57 @@
   </si>
   <si>
     <t>In Vehicle master, change ICV to IDV</t>
+  </si>
+  <si>
+    <t>In Enquiry note add, aassigned to should be from login user</t>
+  </si>
+  <si>
+    <t>In Tripdetails add, include 'Biling Type' drop down. Vehicle Type Requested, Vehicle Type Placed</t>
+  </si>
+  <si>
+    <t>In Tripdetails add, change 'Vehicle Type' label to 'Vehicle Type Placed'.</t>
+  </si>
+  <si>
+    <t>In Tripdetails add, update driver name as drop down and pull license number, contact number from database</t>
+  </si>
+  <si>
+    <t>In Tripdetails add,From Location, To Location, Starting Km, Ending KM, Starting Date, Ending Date as seprate Row Items</t>
+  </si>
+  <si>
+    <t>In Consignment add, consigner, consignee,Consigner Invoice, Consigner Value, Value in INR, No of Pieces, weight to be added as separate line item</t>
+  </si>
+  <si>
+    <t>In Consignment add, move ebill no, date of Issue, Date of validity to trip details form</t>
+  </si>
+  <si>
+    <t>In Consignment add,remove 'Container' for 'Container Description' label.</t>
+  </si>
+  <si>
+    <t>In Consignment add,remove Dimension</t>
+  </si>
+  <si>
+    <t>In Consignment add,add 'Movement type' with FTL, LTL as drop down</t>
+  </si>
+  <si>
+    <t>In Consignment add,change 'Movement' to 'Consignent Type'</t>
+  </si>
+  <si>
+    <t>In Consignment note add, add customer code</t>
+  </si>
+  <si>
+    <t>In Consignment note add, add touch point between from and to</t>
+  </si>
+  <si>
+    <t>In Consignment add,add 'Freight Amount'</t>
+  </si>
+  <si>
+    <t>In Trip closure, change 'cost' in all labels to 'Charges'</t>
+  </si>
+  <si>
+    <t>In Trip closure, add 'Handling Charges and Halting Charges</t>
+  </si>
+  <si>
+    <t>In Trip closure, add customer ref no</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1104,58 +1155,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1178,37 +1177,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1256,7 +1224,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1271,19 +1239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,22 +1264,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1335,10 +1275,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1347,28 +1287,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1690,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F90" sqref="F90:F101"/>
+      <selection pane="bottomRight" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,172 +1635,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>44828</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14">
         <v>44927</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>44828</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>44828</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
         <v>44927</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>44828</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>44828</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
         <v>44927</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1885,19 +1809,19 @@
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>44828</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1911,23 +1835,23 @@
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <v>44828</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
         <v>44927</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J8" s="4"/>
@@ -1939,23 +1863,23 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>44828</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>44927</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="4"/>
@@ -1967,19 +1891,19 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>44828</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="4"/>
@@ -1991,19 +1915,19 @@
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <v>44828</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="4"/>
@@ -2015,19 +1939,19 @@
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <v>44828</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="4"/>
@@ -2039,23 +1963,23 @@
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <v>44828</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
         <v>44927</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="4"/>
@@ -2067,19 +1991,19 @@
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <v>44828</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J14" s="5" t="s">
@@ -2093,19 +2017,19 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="14">
         <v>44828</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J15" s="4"/>
@@ -2117,23 +2041,23 @@
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <v>44828</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
         <v>44927</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="4"/>
@@ -2145,19 +2069,19 @@
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <v>44828</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="4"/>
@@ -2169,23 +2093,23 @@
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <v>44828</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
         <v>44927</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J18" s="4"/>
@@ -2197,23 +2121,23 @@
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="14">
         <v>44828</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
         <v>44927</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="4"/>
@@ -2225,23 +2149,23 @@
       <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="14">
         <v>44828</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
         <v>44927</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="4"/>
@@ -2253,19 +2177,19 @@
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="14">
         <v>44828</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="4"/>
@@ -2277,19 +2201,19 @@
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="14">
         <v>44828</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J22" s="4"/>
@@ -2301,19 +2225,19 @@
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="14">
         <v>44828</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J23" s="4"/>
@@ -2325,23 +2249,23 @@
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="14">
         <v>44828</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <v>44927</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J24" s="4"/>
@@ -2353,19 +2277,19 @@
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="14">
         <v>44828</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2379,23 +2303,23 @@
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="14">
         <v>44828</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <v>44927</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J26" s="4"/>
@@ -2407,23 +2331,23 @@
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="14">
         <v>44828</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <v>44927</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J27" s="4"/>
@@ -2435,19 +2359,19 @@
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="14">
         <v>44828</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J28" s="5" t="s">
@@ -2461,23 +2385,23 @@
       <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="14">
         <v>44828</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <v>44927</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J29" s="4"/>
@@ -2489,23 +2413,23 @@
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="14">
         <v>44828</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <v>44927</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J30" s="4"/>
@@ -2517,23 +2441,23 @@
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="14">
         <v>44828</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
         <v>44927</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="4"/>
@@ -2542,26 +2466,26 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="14">
         <v>44828</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
         <v>44927</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J32" s="5" t="s">
@@ -2572,26 +2496,26 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="14">
         <v>44828</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
         <v>44927</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J33" s="4"/>
@@ -2600,26 +2524,26 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="14">
         <v>44828</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14">
         <v>44927</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J34" s="4"/>
@@ -2628,26 +2552,26 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="14">
         <v>44828</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14">
         <v>44927</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J35" s="4"/>
@@ -2656,26 +2580,26 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="14">
         <v>44828</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14">
         <v>44927</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="4"/>
@@ -2684,26 +2608,26 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="14">
         <v>44828</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18">
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
         <v>44927</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J37" s="4"/>
@@ -2712,26 +2636,26 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="14">
         <v>44828</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
         <v>44927</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J38" s="4"/>
@@ -2740,26 +2664,26 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="14">
         <v>44828</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
         <v>44927</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J39" s="5" t="s">
@@ -2770,22 +2694,22 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="14">
         <v>44828</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -2796,22 +2720,22 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="14">
         <v>44828</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="5" t="s">
@@ -2822,22 +2746,22 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="14">
         <v>44828</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J42" s="4"/>
@@ -2846,73 +2770,73 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="14">
         <v>44828</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="14">
         <v>44828</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="22" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="19" t="s">
+      <c r="C45" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="14">
         <v>44917</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="24"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -2921,19 +2845,19 @@
       <c r="B46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="15">
         <v>44933</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J46" s="4"/>
@@ -2945,19 +2869,19 @@
       <c r="B47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="15">
         <v>44935</v>
       </c>
-      <c r="F47" s="25"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J47" s="4"/>
@@ -2969,19 +2893,19 @@
       <c r="B48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="15">
         <v>44935</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J48" s="4"/>
@@ -2993,19 +2917,19 @@
       <c r="B49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="15">
         <v>44935</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J49" s="4"/>
@@ -3017,19 +2941,19 @@
       <c r="B50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="15">
         <v>44935</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="17" t="s">
         <v>87</v>
       </c>
       <c r="J50" s="5" t="s">
@@ -3043,19 +2967,19 @@
       <c r="B51" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="15">
         <v>44935</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J51" s="5" t="s">
@@ -3069,19 +2993,19 @@
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="15">
         <v>44935</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J52" s="5" t="s">
@@ -3095,19 +3019,19 @@
       <c r="B53" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="15">
         <v>44935</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J53" s="4"/>
@@ -3119,19 +3043,19 @@
       <c r="B54" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="15">
         <v>44935</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="4"/>
@@ -3143,19 +3067,19 @@
       <c r="B55" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="15">
         <v>44935</v>
       </c>
-      <c r="F55" s="25"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J55" s="4"/>
@@ -3167,19 +3091,19 @@
       <c r="B56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="15">
         <v>44935</v>
       </c>
-      <c r="F56" s="25"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J56" s="4"/>
@@ -3191,23 +3115,23 @@
       <c r="B57" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="15">
         <v>44935</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15">
         <v>44937</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J57" s="4"/>
@@ -3219,19 +3143,19 @@
       <c r="B58" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="15">
         <v>44935</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="4"/>
@@ -3243,19 +3167,19 @@
       <c r="B59" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="15">
         <v>44935</v>
       </c>
-      <c r="F59" s="25"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J59" s="4"/>
@@ -3267,25 +3191,25 @@
       <c r="B60" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="15">
         <v>44935</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="15">
         <v>44940</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J60" s="4"/>
@@ -3297,25 +3221,25 @@
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="15">
         <v>44937</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="15">
         <v>44940</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J61" s="4" t="s">
@@ -3329,19 +3253,19 @@
       <c r="B62" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="15">
         <v>44937</v>
       </c>
-      <c r="F62" s="25"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J62" s="4"/>
@@ -3353,19 +3277,19 @@
       <c r="B63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="15">
         <v>44937</v>
       </c>
-      <c r="F63" s="25"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="27" t="s">
+      <c r="I63" s="17" t="s">
         <v>87</v>
       </c>
       <c r="J63" s="5" t="s">
@@ -3379,19 +3303,19 @@
       <c r="B64" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="15">
         <v>44937</v>
       </c>
-      <c r="F64" s="25"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J64" s="4"/>
@@ -3403,19 +3327,19 @@
       <c r="B65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="15">
         <v>44938</v>
       </c>
-      <c r="F65" s="25"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J65" s="4"/>
@@ -3427,19 +3351,19 @@
       <c r="B66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="15">
         <v>44938</v>
       </c>
-      <c r="F66" s="25"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="16" t="s">
         <v>93</v>
       </c>
       <c r="J66" s="4"/>
@@ -3451,23 +3375,23 @@
       <c r="B67" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="15">
         <v>44938</v>
       </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25">
+      <c r="F67" s="15"/>
+      <c r="G67" s="15">
         <v>44938</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J67" s="4"/>
@@ -3479,25 +3403,25 @@
       <c r="B68" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="15">
         <v>44938</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="15">
         <v>44938</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J68" s="4"/>
@@ -3509,21 +3433,21 @@
       <c r="B69" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E69" s="15">
         <v>44939</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="27" t="s">
+      <c r="I69" s="17" t="s">
         <v>87</v>
       </c>
       <c r="J69" s="5" t="s">
@@ -3537,21 +3461,21 @@
       <c r="B70" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="15">
         <v>44940</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J70" s="4"/>
@@ -3563,21 +3487,21 @@
       <c r="B71" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="15">
         <v>44940</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J71" s="4"/>
@@ -3589,21 +3513,21 @@
       <c r="B72" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="15">
         <v>44940</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J72" s="4"/>
@@ -3615,21 +3539,21 @@
       <c r="B73" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E73" s="15">
         <v>44944</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J73" s="4" t="s">
@@ -3643,25 +3567,25 @@
       <c r="B74" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="15">
         <v>44944</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="15">
         <v>44945</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J74" s="4"/>
@@ -3673,25 +3597,25 @@
       <c r="B75" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E75" s="15">
         <v>44944</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="15">
         <v>44951</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J75" s="4"/>
@@ -3703,25 +3627,25 @@
       <c r="B76" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="15">
         <v>44944</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G76" s="15">
         <v>44944</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="4"/>
@@ -3733,21 +3657,21 @@
       <c r="B77" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="15">
         <v>44944</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J77" s="4"/>
@@ -3759,25 +3683,25 @@
       <c r="B78" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="15">
         <v>44951</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G78" s="15">
         <v>44951</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J78" s="4"/>
@@ -3789,25 +3713,25 @@
       <c r="B79" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="15">
         <v>44953</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="15">
         <v>44953</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J79" s="4"/>
@@ -3819,25 +3743,25 @@
       <c r="B80" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E80" s="15">
         <v>44956</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="15">
         <v>44957</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J80" s="4"/>
@@ -3849,25 +3773,25 @@
       <c r="B81" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="15">
         <v>44956</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G81" s="15">
         <v>44957</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J81" s="4"/>
@@ -3879,13 +3803,13 @@
       <c r="B82" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="15">
         <v>44960</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -3893,7 +3817,7 @@
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="3" t="s">
+      <c r="I82" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J82" s="4" t="s">
@@ -3907,13 +3831,13 @@
       <c r="B83" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E83" s="25">
+      <c r="E83" s="15">
         <v>44960</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -3921,7 +3845,7 @@
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J83" s="4" t="s">
@@ -3935,25 +3859,25 @@
       <c r="B84" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="25">
+      <c r="E84" s="15">
         <v>44960</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G84" s="25">
+      <c r="G84" s="15">
         <v>44968</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="I84" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J84" s="4" t="s">
@@ -3967,13 +3891,13 @@
       <c r="B85" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E85" s="25">
+      <c r="E85" s="15">
         <v>44960</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -3981,7 +3905,7 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J85" s="4" t="s">
@@ -3995,13 +3919,13 @@
       <c r="B86" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86" s="15">
         <v>44960</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -4009,7 +3933,7 @@
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J86" s="4" t="s">
@@ -4023,13 +3947,13 @@
       <c r="B87" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="25">
+      <c r="E87" s="15">
         <v>44960</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -4037,7 +3961,7 @@
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J87" s="4" t="s">
@@ -4051,13 +3975,13 @@
       <c r="B88" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E88" s="15">
         <v>44960</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -4065,40 +3989,40 @@
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="3" t="s">
+      <c r="I88" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="35">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D89" s="38" t="s">
+      <c r="C89" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E89" s="39">
+      <c r="E89" s="15">
         <v>44973</v>
       </c>
-      <c r="F89" s="35" t="s">
+      <c r="F89" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G89" s="39">
+      <c r="G89" s="15">
         <v>44973</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="40" t="s">
+      <c r="I89" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J89" s="41"/>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
@@ -4107,21 +4031,21 @@
       <c r="B90" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="25">
+      <c r="E90" s="15">
         <v>44975</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J90" s="4"/>
@@ -4139,15 +4063,15 @@
       <c r="D91" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E91" s="25">
+      <c r="E91" s="15">
         <v>44975</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J91" s="4"/>
@@ -4165,19 +4089,19 @@
       <c r="D92" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="15">
         <v>44975</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G92" s="25">
+      <c r="G92" s="15">
         <v>44975</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J92" s="4"/>
@@ -4195,19 +4119,19 @@
       <c r="D93" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E93" s="25">
+      <c r="E93" s="15">
         <v>44975</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G93" s="25">
+      <c r="G93" s="15">
         <v>44975</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J93" s="4"/>
@@ -4225,15 +4149,15 @@
       <c r="D94" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E94" s="25">
+      <c r="E94" s="15">
         <v>44975</v>
       </c>
-      <c r="F94" s="25" t="s">
+      <c r="F94" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J94" s="4"/>
@@ -4251,15 +4175,15 @@
       <c r="D95" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E95" s="25">
+      <c r="E95" s="15">
         <v>44975</v>
       </c>
-      <c r="F95" s="25" t="s">
+      <c r="F95" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="3" t="s">
+      <c r="I95" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J95" s="4"/>
@@ -4277,15 +4201,15 @@
       <c r="D96" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="25">
+      <c r="E96" s="15">
         <v>44975</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="3" t="s">
+      <c r="I96" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J96" s="4"/>
@@ -4303,15 +4227,15 @@
       <c r="D97" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E97" s="25">
+      <c r="E97" s="15">
         <v>44975</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="3" t="s">
+      <c r="I97" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J97" s="4"/>
@@ -4329,15 +4253,15 @@
       <c r="D98" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E98" s="15">
         <v>44975</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="3" t="s">
+      <c r="I98" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J98" s="4"/>
@@ -4355,19 +4279,19 @@
       <c r="D99" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E99" s="25">
+      <c r="E99" s="15">
         <v>44975</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G99" s="25">
+      <c r="G99" s="15">
         <v>44975</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="I99" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J99" s="4"/>
@@ -4376,27 +4300,33 @@
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E100" s="25">
+      <c r="E100" s="15">
         <v>44975</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F100" s="15" t="s">
         <v>111</v>
       </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="5" t="s">
         <v>190</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -4405,24 +4335,493 @@
       <c r="D101" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E101" s="25">
+      <c r="E101" s="15">
         <v>44975</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="15">
         <v>44975</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E108" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E109" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E111" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E114" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E115" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E116" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E117" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E118" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J69"/>
+  <autoFilter ref="A1:J119"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4459,68 +4858,68 @@
     <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="21" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4590,7 +4989,7 @@
       <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="19">
         <v>0.18</v>
       </c>
       <c r="R3" t="s">
@@ -4631,55 +5030,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+    <row r="2" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>0.9</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="22">
         <v>0.6</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="22">
         <v>0</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="22">
         <v>0</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="22">
         <v>0.7</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="22">
         <v>0</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="22">
         <v>0.7</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="22">
         <v>0.8</v>
       </c>
     </row>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="209">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>In Trip closure, add customer ref no</t>
+  </si>
+  <si>
+    <t>In Damage check after, unable to add new line item</t>
   </si>
 </sst>
 </file>
@@ -1614,13 +1617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J94" sqref="J94"/>
+      <selection pane="bottomRight" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4819,6 +4822,36 @@
         <v>48</v>
       </c>
       <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" s="15">
+        <v>44979</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G120" s="15">
+        <v>44980</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J120" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J119"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="210">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>In Damage check after, unable to add new line item</t>
+  </si>
+  <si>
+    <t>In dispatch list, MAWB &amp; HAWB numbers were same.</t>
   </si>
 </sst>
 </file>
@@ -1617,13 +1620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D127" sqref="D127"/>
+      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4852,6 +4855,36 @@
         <v>44</v>
       </c>
       <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" s="15">
+        <v>44981</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G121" s="15">
+        <v>44981</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J121" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J119"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="211">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>In dispatch list, MAWB &amp; HAWB numbers were same.</t>
+  </si>
+  <si>
+    <t>In warehouse goods model file, shipper invpoice value is incorrect.</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1185,6 +1188,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1230,7 +1246,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1298,6 +1314,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1620,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
+      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4857,34 +4882,64 @@
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="26">
         <v>120</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="27" t="s">
         <v>209</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E121" s="15">
+      <c r="E121" s="28">
         <v>44981</v>
       </c>
-      <c r="F121" s="15" t="s">
+      <c r="F121" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G121" s="15">
+      <c r="G121" s="28">
         <v>44981</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="26" t="s">
         <v>3</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" s="15">
+        <v>45003</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G122" s="15">
+        <v>45003</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J122" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J119"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
     <sheet name="Expense" sheetId="2" r:id="rId2"/>
     <sheet name="Project_Progress" sheetId="3" r:id="rId3"/>
+    <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$119</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="248">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -659,6 +660,117 @@
   </si>
   <si>
     <t>In warehouse goods model file, shipper invpoice value is incorrect.</t>
+  </si>
+  <si>
+    <t>Facility Mgt</t>
+  </si>
+  <si>
+    <t>Manpower Mgt</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Call-Type</t>
+  </si>
+  <si>
+    <t>Nature Of Call</t>
+  </si>
+  <si>
+    <t>Purpose of Call</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Handlers</t>
+  </si>
+  <si>
+    <t>Manufcturing</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>New-First Time</t>
+  </si>
+  <si>
+    <t>Sales Call</t>
+  </si>
+  <si>
+    <t>Split name of the decision maker and Designation</t>
+  </si>
+  <si>
+    <t>Hous keeping</t>
+  </si>
+  <si>
+    <t>Supervisors</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Tele-Call</t>
+  </si>
+  <si>
+    <t>Target-Till Quote</t>
+  </si>
+  <si>
+    <t>Followup Call</t>
+  </si>
+  <si>
+    <t>Disable date of call</t>
+  </si>
+  <si>
+    <t>value added</t>
+  </si>
+  <si>
+    <t>MS-Teams</t>
+  </si>
+  <si>
+    <t>Pipeline-Till PO</t>
+  </si>
+  <si>
+    <t>Review Meeting</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>Escalation Meeting</t>
+  </si>
+  <si>
+    <t>Rate Revision</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Need Assessment</t>
+  </si>
+  <si>
+    <t>AR Followup</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>If No, Reason? (free Text)</t>
+  </si>
+  <si>
+    <t>Expected Profit %, Integer</t>
+  </si>
+  <si>
+    <t>Approver Name (Joseph Sony)</t>
+  </si>
+  <si>
+    <t>Status - Decisopn Pending, Business Won, Rate not competitive, Business Discontinued, AR issues, Projects</t>
+  </si>
+  <si>
+    <t>Remove Meeting cancelled with remarks</t>
+  </si>
+  <si>
+    <t>MOM-change to large text box</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1358,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1324,6 +1436,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1647,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5206,4 +5321,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="req_text" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="287">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -771,13 +771,130 @@
   </si>
   <si>
     <t>MOM-change to large text box</t>
+  </si>
+  <si>
+    <t>Create separae customer database for warehouse transport, packing</t>
+  </si>
+  <si>
+    <t>WMS,TMS,PMS</t>
+  </si>
+  <si>
+    <t>While sharing parent screen is not apperain inother screeen</t>
+  </si>
+  <si>
+    <t>CUSTOMER NAME AND PRODUCT TO BE CAPUTERED IN CUSTOMER MASTER</t>
+  </si>
+  <si>
+    <t>The Requiredment is company wise reveneu</t>
+  </si>
+  <si>
+    <t>Joseph will ask EIPL MAA revenue product wise</t>
+  </si>
+  <si>
+    <t>Customer Name : EIPL -MAA RELEVANT</t>
+  </si>
+  <si>
+    <t>Requirement : not required</t>
+  </si>
+  <si>
+    <t>Others below manpower</t>
+  </si>
+  <si>
+    <t>Day call to be removed</t>
+  </si>
+  <si>
+    <t>Wooden Box Spelling</t>
+  </si>
+  <si>
+    <t>To check for BVM Admin to add Product master in each vertical</t>
+  </si>
+  <si>
+    <t>Type of supply to be enable only for packing requirement and mandatory</t>
+  </si>
+  <si>
+    <t>Location to be renamed as handling office</t>
+  </si>
+  <si>
+    <t>Is customer name to have location as suffix also or location to be in separate field</t>
+  </si>
+  <si>
+    <t>Type of Call : TO have E-mail as an option</t>
+  </si>
+  <si>
+    <t>Natrue of Call : To have After Sales as an option</t>
+  </si>
+  <si>
+    <t>Purpose of Call : Customer complaint</t>
+  </si>
+  <si>
+    <t>Decision maker : Not applicable refers to whom</t>
+  </si>
+  <si>
+    <t>Joint Call : Yes/No to be created</t>
+  </si>
+  <si>
+    <t>Volume/Business potentail to be seperated</t>
+  </si>
+  <si>
+    <t>Prospective custor : Not applicable ro be removed</t>
+  </si>
+  <si>
+    <t>Prospective custor : If No drop down to be added</t>
+  </si>
+  <si>
+    <t>Business won:  If No drop down to be added</t>
+  </si>
+  <si>
+    <t>Date of quote sent till business win date system to trigger a dash board with data of quote sent vs business win</t>
+  </si>
+  <si>
+    <t>Status: Business started, Customer response pending</t>
+  </si>
+  <si>
+    <t>Sales Call Owner name field required</t>
+  </si>
+  <si>
+    <t>Customers Revenue to be aligned with the sales person</t>
+  </si>
+  <si>
+    <t>Weekly sales report template</t>
+  </si>
+  <si>
+    <t>date range</t>
+  </si>
+  <si>
+    <t>name of the sales person</t>
+  </si>
+  <si>
+    <t>list of customers/ no of calls</t>
+  </si>
+  <si>
+    <t>current status</t>
+  </si>
+  <si>
+    <t>date of business start</t>
+  </si>
+  <si>
+    <t>billing done as on date for the month</t>
+  </si>
+  <si>
+    <t>AR as on date</t>
+  </si>
+  <si>
+    <t>Customer code field to be created</t>
+  </si>
+  <si>
+    <t>Manpower Requirement to be removed and added in Facility manamgnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,6 +1040,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1358,7 +1482,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1439,6 +1563,19 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1760,13 +1897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E113" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomRight" activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3989,10 +4126,14 @@
       <c r="F83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="12" t="s">
-        <v>48</v>
+      <c r="G83" s="15">
+        <v>45011</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>158</v>
@@ -5027,34 +5168,996 @@
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="26">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E122" s="15">
+      <c r="E122" s="28">
         <v>45003</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G122" s="15">
+      <c r="G122" s="28">
         <v>45003</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="I122" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J122" s="4"/>
+      <c r="J122" s="33"/>
+    </row>
+    <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E123" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E125" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E126" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E127" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E128" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E130" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E132" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E133" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E134" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E135" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E136" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E138" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E139" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E141" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J145" s="4"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E149" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E150" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E152" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E153" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E156" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E157" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E158" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E159" s="15">
+        <v>45013</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J159" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J119"/>
@@ -5327,8 +6430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -18,14 +18,14 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="292">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -782,27 +782,6 @@
     <t>While sharing parent screen is not apperain inother screeen</t>
   </si>
   <si>
-    <t>CUSTOMER NAME AND PRODUCT TO BE CAPUTERED IN CUSTOMER MASTER</t>
-  </si>
-  <si>
-    <t>The Requiredment is company wise reveneu</t>
-  </si>
-  <si>
-    <t>Joseph will ask EIPL MAA revenue product wise</t>
-  </si>
-  <si>
-    <t>Customer Name : EIPL -MAA RELEVANT</t>
-  </si>
-  <si>
-    <t>Requirement : not required</t>
-  </si>
-  <si>
-    <t>Others below manpower</t>
-  </si>
-  <si>
-    <t>Day call to be removed</t>
-  </si>
-  <si>
     <t>Wooden Box Spelling</t>
   </si>
   <si>
@@ -821,15 +800,6 @@
     <t>Type of Call : TO have E-mail as an option</t>
   </si>
   <si>
-    <t>Natrue of Call : To have After Sales as an option</t>
-  </si>
-  <si>
-    <t>Purpose of Call : Customer complaint</t>
-  </si>
-  <si>
-    <t>Decision maker : Not applicable refers to whom</t>
-  </si>
-  <si>
     <t>Joint Call : Yes/No to be created</t>
   </si>
   <si>
@@ -845,9 +815,6 @@
     <t>Business won:  If No drop down to be added</t>
   </si>
   <si>
-    <t>Date of quote sent till business win date system to trigger a dash board with data of quote sent vs business win</t>
-  </si>
-  <si>
     <t>Status: Business started, Customer response pending</t>
   </si>
   <si>
@@ -888,6 +855,54 @@
   </si>
   <si>
     <t xml:space="preserve">Sales </t>
+  </si>
+  <si>
+    <t>Not an issue with application. Issues resolved when entire screen is shared than sharing only the application.</t>
+  </si>
+  <si>
+    <t>In  Customer Master add BVM Business (BVM Trans Solution, BVM Pack Solutions, BVM Storae Solutions), attachment for Contract, Contract Validity date From and To TO</t>
+  </si>
+  <si>
+    <t>In revenue report, BVM companywise report to be generated.</t>
+  </si>
+  <si>
+    <t>In Sale form, Requirement : not required</t>
+  </si>
+  <si>
+    <t>Manpower to be changed as Other Requireemnt with Open text box</t>
+  </si>
+  <si>
+    <t>Day call to be removed from Transport requireemnt drop down</t>
+  </si>
+  <si>
+    <t>KT provided to Sony</t>
+  </si>
+  <si>
+    <t>change not required</t>
+  </si>
+  <si>
+    <t>Purpose of Call : Customer complaint,After Sales</t>
+  </si>
+  <si>
+    <t>Natrue of Call : To haveExisting as an option</t>
+  </si>
+  <si>
+    <t>Decision maker : Not applicable refers to whom (remove Not applicable)</t>
+  </si>
+  <si>
+    <t>Rate not competitive, Business model not viable, Customer well aligned with current vendor, Not immediate,</t>
+  </si>
+  <si>
+    <t>Not competitive, sales closing not effective, late response</t>
+  </si>
+  <si>
+    <t>Date of quote sent till business win date system to trigger a dash board with data of quote sent vs business win (Calculate no of days between quote sent and business start)</t>
+  </si>
+  <si>
+    <t>add Status, quote sent date, business start date in list page and difference</t>
+  </si>
+  <si>
+    <t>Add auto generated filed for sales order number</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1497,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1493,7 +1508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1506,7 +1520,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1566,15 +1579,35 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1900,214 +1933,214 @@
   <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H134" sqref="H134"/>
+      <selection pane="bottomRight" activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="53.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="33" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="22.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>44828</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>44927</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="9"/>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>44828</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>44828</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
         <v>44927</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="9"/>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>44828</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>44828</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
         <v>44927</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="9"/>
+      <c r="H6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>44828</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2115,26 +2148,26 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>44828</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
         <v>44927</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J8" s="4"/>
@@ -2143,26 +2176,26 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>44828</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>44927</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="4"/>
@@ -2171,22 +2204,22 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>44828</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="4"/>
@@ -2195,22 +2228,22 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>44828</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="4"/>
@@ -2219,22 +2252,22 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>44828</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="4"/>
@@ -2243,26 +2276,26 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>44828</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>44927</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="4"/>
@@ -2271,25 +2304,25 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>44828</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2297,22 +2330,22 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>44828</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J15" s="4"/>
@@ -2321,26 +2354,26 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>44828</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
         <v>44927</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="4"/>
@@ -2349,22 +2382,22 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>44828</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="4"/>
@@ -2373,26 +2406,26 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>44828</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>44927</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J18" s="4"/>
@@ -2401,26 +2434,26 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>44828</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
         <v>44927</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="4"/>
@@ -2429,26 +2462,26 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>44828</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <v>44927</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="4"/>
@@ -2457,22 +2490,22 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>44828</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="4"/>
@@ -2481,22 +2514,22 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>44828</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J22" s="4"/>
@@ -2505,22 +2538,22 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>44828</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J23" s="4"/>
@@ -2529,26 +2562,26 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>44828</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
         <v>44927</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J24" s="4"/>
@@ -2557,22 +2590,22 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>44828</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2583,26 +2616,26 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>44828</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
         <v>44927</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J26" s="4"/>
@@ -2611,26 +2644,26 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>44828</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
         <v>44927</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J27" s="4"/>
@@ -2639,25 +2672,25 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>44828</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2665,26 +2698,26 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>44828</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
         <v>44927</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J29" s="4"/>
@@ -2693,26 +2726,26 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <v>44828</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12">
         <v>44927</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J30" s="4"/>
@@ -2721,26 +2754,26 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>44828</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12">
         <v>44927</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="4"/>
@@ -2749,29 +2782,29 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <v>44828</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12">
         <v>44927</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="H32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2779,26 +2812,26 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>44828</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
         <v>44927</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J33" s="4"/>
@@ -2807,26 +2840,26 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>44828</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
         <v>44927</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J34" s="4"/>
@@ -2835,26 +2868,26 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>44828</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12">
         <v>44927</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="6" t="s">
+      <c r="H35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J35" s="4"/>
@@ -2863,26 +2896,26 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>44828</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12">
         <v>44927</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="6" t="s">
+      <c r="H36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="4"/>
@@ -2891,26 +2924,26 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>44828</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
         <v>44927</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="H37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J37" s="4"/>
@@ -2919,26 +2952,26 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <v>44828</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12">
         <v>44927</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="6" t="s">
+      <c r="H38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J38" s="4"/>
@@ -2947,29 +2980,29 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>44828</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
         <v>44927</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="5" t="s">
+      <c r="H39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2977,22 +3010,22 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="12">
         <v>44828</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -3003,25 +3036,25 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="12">
         <v>44828</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3029,22 +3062,22 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="12">
         <v>44828</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J42" s="4"/>
@@ -3053,22 +3086,22 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
         <v>44828</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J43" s="4"/>
@@ -3077,22 +3110,22 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="12">
         <v>44828</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J44" s="4"/>
@@ -3101,22 +3134,22 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="12">
         <v>44917</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J45" s="4"/>
@@ -3125,22 +3158,22 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="13">
         <v>44933</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J46" s="4"/>
@@ -3149,22 +3182,22 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="13">
         <v>44935</v>
       </c>
-      <c r="F47" s="15"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J47" s="4"/>
@@ -3173,22 +3206,22 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="13">
         <v>44935</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J48" s="4"/>
@@ -3197,22 +3230,22 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="13">
         <v>44935</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J49" s="4"/>
@@ -3221,25 +3254,25 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="13">
         <v>44935</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3247,25 +3280,25 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="13">
         <v>44935</v>
       </c>
-      <c r="F51" s="15"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" s="5" t="s">
+      <c r="I51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3273,25 +3306,25 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="13">
         <v>44935</v>
       </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" s="5" t="s">
+      <c r="I52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3299,22 +3332,22 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="13">
         <v>44935</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J53" s="4"/>
@@ -3323,22 +3356,22 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="13">
         <v>44935</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="4"/>
@@ -3347,22 +3380,22 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="13">
         <v>44935</v>
       </c>
-      <c r="F55" s="15"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J55" s="4"/>
@@ -3371,22 +3404,22 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="13">
         <v>44935</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J56" s="4"/>
@@ -3395,26 +3428,26 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="13">
         <v>44935</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15">
+      <c r="F57" s="13"/>
+      <c r="G57" s="13">
         <v>44937</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J57" s="4"/>
@@ -3423,22 +3456,22 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="13">
         <v>44935</v>
       </c>
-      <c r="F58" s="15"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="4"/>
@@ -3447,22 +3480,22 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="13">
         <v>44935</v>
       </c>
-      <c r="F59" s="15"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J59" s="4"/>
@@ -3471,28 +3504,28 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="13">
         <v>44935</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="13">
         <v>44940</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J60" s="4"/>
@@ -3501,28 +3534,28 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="13">
         <v>44937</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G61" s="15">
+      <c r="F61" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" s="13">
         <v>44940</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J61" s="4" t="s">
@@ -3533,22 +3566,22 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="13">
         <v>44937</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J62" s="4"/>
@@ -3557,25 +3590,25 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="13">
         <v>44937</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="17" t="s">
+      <c r="I63" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3583,22 +3616,22 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="13">
         <v>44937</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J64" s="4"/>
@@ -3607,22 +3640,22 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="13">
         <v>44938</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="13"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J65" s="4"/>
@@ -3631,22 +3664,22 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="13">
         <v>44938</v>
       </c>
-      <c r="F66" s="15"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="16" t="s">
+      <c r="I66" s="14" t="s">
         <v>93</v>
       </c>
       <c r="J66" s="4"/>
@@ -3655,26 +3688,26 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="13">
         <v>44938</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15">
+      <c r="F67" s="13"/>
+      <c r="G67" s="13">
         <v>44938</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J67" s="4"/>
@@ -3683,28 +3716,28 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="13">
         <v>44938</v>
       </c>
-      <c r="F68" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="15">
+      <c r="F68" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68" s="13">
         <v>44938</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J68" s="4"/>
@@ -3713,27 +3746,27 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="13">
         <v>44939</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="17" t="s">
+      <c r="I69" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="J69" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3741,24 +3774,24 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="13">
         <v>44940</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J70" s="4"/>
@@ -3767,24 +3800,24 @@
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="13">
         <v>44940</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J71" s="4"/>
@@ -3793,24 +3826,24 @@
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="13">
         <v>44940</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J72" s="4"/>
@@ -3819,24 +3852,24 @@
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="13">
         <v>44944</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="11" t="s">
+      <c r="I73" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J73" s="4" t="s">
@@ -3847,28 +3880,28 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="13">
         <v>44944</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="13">
         <v>44945</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J74" s="4"/>
@@ -3877,28 +3910,28 @@
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="13">
         <v>44944</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G75" s="15">
+      <c r="F75" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="13">
         <v>44951</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J75" s="4"/>
@@ -3907,28 +3940,28 @@
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="13">
         <v>44944</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="13">
         <v>44944</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="4"/>
@@ -3937,24 +3970,24 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="13">
         <v>44944</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J77" s="4"/>
@@ -3963,28 +3996,28 @@
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="13">
         <v>44951</v>
       </c>
-      <c r="F78" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" s="15">
+      <c r="F78" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G78" s="13">
         <v>44951</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J78" s="4"/>
@@ -3993,28 +4026,28 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="13">
         <v>44953</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="13">
         <v>44953</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J79" s="4"/>
@@ -4023,28 +4056,28 @@
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="13">
         <v>44956</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="13">
         <v>44957</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J80" s="4"/>
@@ -4053,28 +4086,28 @@
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="13">
         <v>44956</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="13">
         <v>44957</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J81" s="4"/>
@@ -4083,16 +4116,16 @@
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="13">
         <v>44960</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -4100,7 +4133,7 @@
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="12" t="s">
+      <c r="I82" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J82" s="4" t="s">
@@ -4111,28 +4144,28 @@
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="13">
         <v>44960</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="13">
         <v>45011</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J83" s="4" t="s">
@@ -4143,28 +4176,28 @@
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="13">
         <v>44960</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="13">
         <v>44968</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I84" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J84" s="4" t="s">
@@ -4175,16 +4208,16 @@
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="13">
         <v>44960</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -4192,7 +4225,7 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="12" t="s">
+      <c r="I85" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J85" s="4" t="s">
@@ -4203,16 +4236,16 @@
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="13">
         <v>44960</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -4220,7 +4253,7 @@
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="12" t="s">
+      <c r="I86" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J86" s="4" t="s">
@@ -4231,16 +4264,16 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="13">
         <v>44960</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -4248,7 +4281,7 @@
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="12" t="s">
+      <c r="I87" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J87" s="4" t="s">
@@ -4259,16 +4292,16 @@
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="13">
         <v>44960</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -4276,7 +4309,7 @@
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J88" s="4"/>
@@ -4285,28 +4318,28 @@
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="31" t="s">
         <v>165</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="13">
         <v>44973</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="13">
         <v>44973</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J89" s="4"/>
@@ -4315,24 +4348,24 @@
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="13">
         <v>44975</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="12" t="s">
+      <c r="I90" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J90" s="4"/>
@@ -4341,24 +4374,24 @@
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="13">
         <v>44975</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="12" t="s">
+      <c r="I91" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J91" s="4"/>
@@ -4367,28 +4400,28 @@
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="13">
         <v>44975</v>
       </c>
-      <c r="F92" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G92" s="15">
+      <c r="F92" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G92" s="13">
         <v>44975</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J92" s="4"/>
@@ -4397,28 +4430,28 @@
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="13">
         <v>44975</v>
       </c>
-      <c r="F93" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G93" s="15">
+      <c r="F93" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" s="13">
         <v>44975</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J93" s="4"/>
@@ -4427,24 +4460,24 @@
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="13">
         <v>44975</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="12" t="s">
+      <c r="I94" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J94" s="4"/>
@@ -4453,24 +4486,24 @@
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="13">
         <v>44975</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="12" t="s">
+      <c r="I95" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J95" s="4"/>
@@ -4479,24 +4512,24 @@
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="13">
         <v>44975</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="12" t="s">
+      <c r="I96" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J96" s="4"/>
@@ -4505,24 +4538,24 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="13">
         <v>44975</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="F97" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="12" t="s">
+      <c r="I97" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J97" s="4"/>
@@ -4531,24 +4564,24 @@
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="13">
         <v>44975</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="12" t="s">
+      <c r="I98" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J98" s="4"/>
@@ -4557,28 +4590,28 @@
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="13">
         <v>44975</v>
       </c>
-      <c r="F99" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" s="15">
+      <c r="F99" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G99" s="13">
         <v>44975</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J99" s="4"/>
@@ -4587,24 +4620,24 @@
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="13">
         <v>44975</v>
       </c>
-      <c r="F100" s="15" t="s">
+      <c r="F100" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="12" t="s">
+      <c r="I100" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J100" s="4"/>
@@ -4613,28 +4646,28 @@
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="13">
         <v>44975</v>
       </c>
-      <c r="F101" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" s="15">
+      <c r="F101" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G101" s="13">
         <v>44975</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J101" s="4"/>
@@ -4643,24 +4676,24 @@
       <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="13">
         <v>44978</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J102" s="4"/>
@@ -4669,24 +4702,24 @@
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="13">
         <v>44978</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="12" t="s">
+      <c r="I103" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J103" s="4"/>
@@ -4695,24 +4728,24 @@
       <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="13">
         <v>44978</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="12" t="s">
+      <c r="I104" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J104" s="4"/>
@@ -4721,24 +4754,24 @@
       <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="13">
         <v>44978</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="12" t="s">
+      <c r="I105" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J105" s="4"/>
@@ -4747,24 +4780,24 @@
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="13">
         <v>44978</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="12" t="s">
+      <c r="I106" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J106" s="4"/>
@@ -4773,24 +4806,24 @@
       <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="13">
         <v>44978</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="12" t="s">
+      <c r="I107" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J107" s="4"/>
@@ -4799,24 +4832,24 @@
       <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="13">
         <v>44978</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-      <c r="I108" s="12" t="s">
+      <c r="I108" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J108" s="4"/>
@@ -4825,24 +4858,24 @@
       <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="13">
         <v>44978</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="12" t="s">
+      <c r="I109" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J109" s="4"/>
@@ -4851,24 +4884,24 @@
       <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="13">
         <v>44978</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F110" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="12" t="s">
+      <c r="I110" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J110" s="4"/>
@@ -4877,24 +4910,24 @@
       <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="13">
         <v>44978</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="F111" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="12" t="s">
+      <c r="I111" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J111" s="4"/>
@@ -4903,24 +4936,24 @@
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="13">
         <v>44978</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="12" t="s">
+      <c r="I112" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J112" s="4"/>
@@ -4929,24 +4962,24 @@
       <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="13">
         <v>44978</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-      <c r="I113" s="12" t="s">
+      <c r="I113" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J113" s="4"/>
@@ -4955,24 +4988,24 @@
       <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="13">
         <v>44978</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="12" t="s">
+      <c r="I114" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J114" s="4"/>
@@ -4981,24 +5014,24 @@
       <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="13">
         <v>44978</v>
       </c>
-      <c r="F115" s="15" t="s">
+      <c r="F115" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="12" t="s">
+      <c r="I115" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J115" s="4"/>
@@ -5007,24 +5040,24 @@
       <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="13">
         <v>44978</v>
       </c>
-      <c r="F116" s="15" t="s">
+      <c r="F116" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="12" t="s">
+      <c r="I116" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J116" s="4"/>
@@ -5033,24 +5066,24 @@
       <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E117" s="13">
         <v>44978</v>
       </c>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
-      <c r="I117" s="12" t="s">
+      <c r="I117" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J117" s="4"/>
@@ -5059,24 +5092,24 @@
       <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E118" s="15">
+      <c r="E118" s="13">
         <v>44978</v>
       </c>
-      <c r="F118" s="15" t="s">
+      <c r="F118" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="12" t="s">
+      <c r="I118" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J118" s="4"/>
@@ -5085,24 +5118,24 @@
       <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="15">
+      <c r="E119" s="13">
         <v>44978</v>
       </c>
-      <c r="F119" s="15" t="s">
+      <c r="F119" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="12" t="s">
+      <c r="I119" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J119" s="4"/>
@@ -5111,106 +5144,106 @@
       <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="32" t="s">
         <v>165</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E120" s="13">
         <v>44979</v>
       </c>
-      <c r="F120" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G120" s="15">
+      <c r="F120" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G120" s="13">
         <v>44980</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I120" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="26">
+      <c r="A121" s="24">
         <v>120</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D121" s="26" t="s">
+      <c r="C121" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E121" s="28">
+      <c r="E121" s="26">
         <v>44981</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G121" s="28">
+      <c r="G121" s="26">
         <v>44981</v>
       </c>
-      <c r="H121" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I121" s="6" t="s">
+      <c r="H121" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="26">
+      <c r="A122" s="24">
         <v>121</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C122" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D122" s="26" t="s">
+      <c r="C122" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E122" s="28">
+      <c r="E122" s="26">
         <v>45003</v>
       </c>
-      <c r="F122" s="26" t="s">
+      <c r="F122" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G122" s="28">
+      <c r="G122" s="26">
         <v>45003</v>
       </c>
-      <c r="H122" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I122" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J122" s="33"/>
+      <c r="H122" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J122" s="25"/>
     </row>
     <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="32" t="s">
         <v>249</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E123" s="15">
+      <c r="E123" s="13">
         <v>45013</v>
       </c>
       <c r="F123" s="3" t="s">
@@ -5218,25 +5251,25 @@
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
-      <c r="I123" s="12" t="s">
+      <c r="I123" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>286</v>
+      <c r="C124" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E124" s="15">
+      <c r="E124" s="13">
         <v>45013</v>
       </c>
       <c r="F124" s="3" t="s">
@@ -5244,25 +5277,27 @@
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I124" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E125" s="15">
+      <c r="E125" s="13">
         <v>45013</v>
       </c>
       <c r="F125" s="3" t="s">
@@ -5270,7 +5305,7 @@
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="12" t="s">
+      <c r="I125" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J125" s="4"/>
@@ -5280,15 +5315,15 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E126" s="15">
+      <c r="E126" s="13">
         <v>45013</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -5296,181 +5331,207 @@
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
-      <c r="I126" s="12" t="s">
+      <c r="I126" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E127" s="15">
+      <c r="E127" s="13">
         <v>45013</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="12" t="s">
-        <v>48</v>
+      <c r="G127" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="13">
         <v>45013</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="12" t="s">
-        <v>48</v>
+      <c r="G128" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J128" s="4"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="13">
         <v>45013</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="12" t="s">
-        <v>48</v>
+      <c r="G129" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J129" s="4"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>286</v>
+        <v>251</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E130" s="15">
+      <c r="E130" s="13">
         <v>45013</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="12" t="s">
-        <v>48</v>
+      <c r="G130" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I130" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J130" s="4"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>286</v>
+        <v>252</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E131" s="15">
+      <c r="E131" s="13">
         <v>45013</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="12" t="s">
-        <v>48</v>
+      <c r="G131" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>286</v>
+        <v>253</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E132" s="13">
         <v>45013</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J132" s="4"/>
+      <c r="G132" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I132" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>286</v>
+        <v>254</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E133" s="15">
+      <c r="E133" s="13">
         <v>45013</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -5478,25 +5539,27 @@
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J133" s="4"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I133" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>286</v>
+        <v>255</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E134" s="15">
+      <c r="E134" s="13">
         <v>45013</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -5504,129 +5567,147 @@
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J134" s="4"/>
+      <c r="I134" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>286</v>
+        <v>256</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E135" s="15">
+      <c r="E135" s="13">
         <v>45013</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="12" t="s">
-        <v>48</v>
+      <c r="G135" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I135" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J135" s="4"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E136" s="15">
+      <c r="E136" s="13">
         <v>45013</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="12" t="s">
-        <v>48</v>
+      <c r="G136" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I136" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J136" s="4"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E137" s="15">
+      <c r="E137" s="13">
         <v>45013</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="12" t="s">
-        <v>48</v>
+      <c r="G137" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I137" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C138" s="5" t="s">
         <v>286</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E138" s="15">
+      <c r="E138" s="13">
         <v>45013</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="12" t="s">
-        <v>48</v>
+      <c r="G138" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I138" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J138" s="4"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>286</v>
+        <v>257</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="15">
+      <c r="E139" s="13">
         <v>45013</v>
       </c>
       <c r="F139" s="3" t="s">
@@ -5634,129 +5715,151 @@
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J139" s="4"/>
+      <c r="I139" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>286</v>
+        <v>258</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E140" s="15">
+      <c r="E140" s="13">
         <v>45013</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="12" t="s">
-        <v>48</v>
+      <c r="G140" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I140" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J140" s="4"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>286</v>
+        <v>259</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E141" s="15">
+      <c r="E141" s="13">
         <v>45013</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="12" t="s">
-        <v>48</v>
+      <c r="G141" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I141" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>286</v>
+        <v>260</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E142" s="15">
+      <c r="E142" s="13">
         <v>45013</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J142" s="4"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G142" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I142" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>286</v>
+        <v>261</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E143" s="15">
+      <c r="E143" s="13">
         <v>45013</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J143" s="4"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G143" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I143" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>143</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>286</v>
+        <v>145</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E144" s="15">
+      <c r="E144" s="13">
         <v>45013</v>
       </c>
       <c r="F144" s="3" t="s">
@@ -5764,51 +5867,53 @@
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
-      <c r="I144" s="12" t="s">
+      <c r="I144" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J144" s="4"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>144</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>286</v>
+        <v>146</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E145" s="15">
+      <c r="E145" s="13">
         <v>45013</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J145" s="4"/>
+      <c r="G145" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I145" s="30" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>145</v>
-      </c>
-      <c r="B146" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>286</v>
+        <v>147</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E146" s="15">
+      <c r="E146" s="13">
         <v>45013</v>
       </c>
       <c r="F146" s="3" t="s">
@@ -5816,259 +5921,297 @@
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J146" s="4"/>
+      <c r="I146" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>146</v>
-      </c>
-      <c r="B147" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>286</v>
+        <v>148</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E147" s="15">
+      <c r="E147" s="13">
         <v>45013</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="12" t="s">
-        <v>48</v>
+      <c r="G147" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I147" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J147" s="4"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>147</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>286</v>
+        <v>149</v>
+      </c>
+      <c r="B148" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E148" s="15">
+      <c r="E148" s="13">
         <v>45013</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="12" t="s">
-        <v>48</v>
+      <c r="G148" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I148" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>148</v>
-      </c>
-      <c r="B149" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E149" s="15">
+      <c r="E149" s="13">
         <v>45013</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="12" t="s">
-        <v>48</v>
+      <c r="G149" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I149" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J149" s="4"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>149</v>
-      </c>
-      <c r="B150" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>286</v>
+        <v>151</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E150" s="15">
+      <c r="E150" s="13">
         <v>45013</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="12" t="s">
-        <v>48</v>
+      <c r="G150" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I150" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J150" s="4"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>150</v>
-      </c>
-      <c r="B151" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>286</v>
+        <v>152</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E151" s="15">
+      <c r="E151" s="13">
         <v>45013</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="12" t="s">
-        <v>48</v>
+      <c r="G151" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I151" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J151" s="4"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>151</v>
-      </c>
-      <c r="B152" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>286</v>
+        <v>153</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E152" s="15">
+      <c r="E152" s="13">
         <v>45013</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="12" t="s">
-        <v>48</v>
+      <c r="G152" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I152" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J152" s="4"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>152</v>
-      </c>
-      <c r="B153" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>286</v>
+        <v>154</v>
+      </c>
+      <c r="B153" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E153" s="15">
+      <c r="E153" s="13">
         <v>45013</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="12" t="s">
-        <v>48</v>
+      <c r="G153" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I153" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J153" s="4"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>153</v>
-      </c>
-      <c r="B154" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>286</v>
+        <v>155</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E154" s="15">
+      <c r="E154" s="13">
         <v>45013</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="12" t="s">
-        <v>48</v>
+      <c r="G154" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I154" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J154" s="4"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>154</v>
-      </c>
-      <c r="B155" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>286</v>
+        <v>156</v>
+      </c>
+      <c r="B155" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E155" s="15">
+      <c r="E155" s="13">
         <v>45013</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="12" t="s">
-        <v>48</v>
+      <c r="G155" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I155" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J155" s="4"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>155</v>
-      </c>
-      <c r="B156" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>286</v>
+        <v>157</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E156" s="15">
+      <c r="E156" s="13">
         <v>45013</v>
       </c>
       <c r="F156" s="3" t="s">
@@ -6076,91 +6219,105 @@
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
-      <c r="I156" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J156" s="4"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
-        <v>156</v>
-      </c>
-      <c r="B157" s="37" t="s">
+      <c r="I156" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J156" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D157" s="3" t="s">
+    </row>
+    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="24">
+        <v>158</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D157" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E157" s="15">
+      <c r="E157" s="26">
         <v>45013</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J157" s="4"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F157" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G157" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I157" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="25"/>
+    </row>
+    <row r="158" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>157</v>
-      </c>
-      <c r="B158" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>286</v>
+        <v>159</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E158" s="15">
-        <v>45013</v>
+      <c r="E158" s="13">
+        <v>45199</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="12" t="s">
-        <v>48</v>
+      <c r="G158" s="13">
+        <v>45015</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I158" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J158" s="4"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>158</v>
-      </c>
-      <c r="B159" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>286</v>
+        <v>160</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="15">
-        <v>45013</v>
+      <c r="E159" s="13">
+        <v>45199</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="12" t="s">
-        <v>48</v>
+      <c r="G159" s="13">
+        <v>45017</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I159" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J159" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J119"/>
+  <autoFilter ref="A1:J159"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6171,7 +6328,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6197,68 +6354,68 @@
     <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:21" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6328,7 +6485,7 @@
       <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>0.18</v>
       </c>
       <c r="R3" t="s">
@@ -6369,55 +6526,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+    <row r="2" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
         <v>0.9</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>0.6</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>0</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>0</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>0.7</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>0</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>0.7</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>0.8</v>
       </c>
     </row>
@@ -6431,7 +6588,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6443,22 +6600,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6481,7 +6638,7 @@
       <c r="G3" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6521,7 +6678,7 @@
       <c r="G5" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="29" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6532,7 +6689,7 @@
       <c r="G6" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="29" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6556,7 +6713,7 @@
       <c r="G9" t="s">
         <v>239</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="29" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6564,7 +6721,7 @@
       <c r="G10" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>247</v>
       </c>
     </row>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -12,20 +12,24 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="req_text" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Expense" sheetId="2" r:id="rId2"/>
-    <sheet name="Project_Progress" sheetId="3" r:id="rId3"/>
-    <sheet name="Sales" sheetId="4" r:id="rId4"/>
+    <sheet name="Progress" sheetId="5" r:id="rId3"/>
+    <sheet name="Project_Progress" sheetId="3" r:id="rId4"/>
+    <sheet name="Sales" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">req_text!$A$1:$J$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$J$159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId6"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="296">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -903,6 +907,18 @@
   </si>
   <si>
     <t>Add auto generated filed for sales order number</t>
+  </si>
+  <si>
+    <t>Count of Sl No</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1513,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1609,6 +1625,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1665,6 +1686,3196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Requirments_v6.0.xlsx]Progress!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Progress!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bug</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Progress!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YTS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cancelled</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hold</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Progress!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Progress!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Progress!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YTS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cancelled</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hold</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Progress!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1954881632"/>
+        <c:axId val="1954886528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1954881632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954886528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1954886528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954881632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="BVM" refreshedDate="45017.367731944447" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="159">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J1048576" sheet="Requirements"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Sl No" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="160"/>
+    </cacheField>
+    <cacheField name="Backlogs" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Module" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Owner" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Assinged on " numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-09-24T00:00:00" maxDate="2023-10-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="Bug/Improvement?" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Improvement"/>
+        <s v="Bug"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Implemented On" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-01-01T00:00:00" maxDate="2023-04-02T00:00:00"/>
+    </cacheField>
+    <cacheField name="Implemented By" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Completed"/>
+        <s v="Hold"/>
+        <s v="YTS"/>
+        <s v="Cancelled"/>
+        <s v="WIP"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Remarks" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="159">
+  <r>
+    <n v="1"/>
+    <s v="Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Return process to be detiailed"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Need inputs from Sridhar Sir"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Rename Loading Bay to Goods Receipt"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Add E,D,S prefix to customer code"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Need inputs from Sony/Venkat. Decided to provide manual input"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Add Not Available to OTL check in loading bay form"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Capture system timing for Unloading start &amp; End Time"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Recommend to implement this feature after go-live."/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Arrival Date &amp; Time in Gate-In screen renamed as Dock-In Date &amp; Time"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Remove Dock-In Date &amp; time form loading bay form"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Check customer contract validity on customer selection in Gate-In form"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Notifications/alert for Customer Contract Validity, Warehouse Insurance Validity, Vendor contract Validity, E-way bill Validity"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="In Gate-In Form, if customer contract validity is expired, further steps should be allowed only for super user"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="In Gate-In form, change Invoice (actual) to Invoice weight-Gross(KG)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Create Gate-In from Pre-Gate-In page"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Since it has one to many releationship, technically its not advisable to create WH job from Pre-gatein form"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Module List access and permissions"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Change E-way bill validity date field to date &amp; time"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Check E-way bill validity (alert has to 4hr before validity)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="In Pre-Gate-In, add branch dropdown (for GRN purpose)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="In Pre-Check-In, add Shipment-Alert attachment (Shipment Information)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="In Pre-Check-In, Attachment for customer approval (in case of mismatch)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="In Billing, rate for all charges should be editable with concessional rate or Nil Billing with approval email from Customer/Joseph sire (Super user).Also, include comment box to document the change"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v=" In Customer master creation, super user to approve deviation in mandatory document (KYC, Contract, SOW, Operations SOP, Billing SOP,Rate Sheet) requirement with comments. Each document attachment field should have deviation (Yes/No), Frequency (Time being/Permanent)(Time being alert should be notified in alerts, Comments"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="In Damage Check/Before, change Damage Type to Multi select"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="In Damage Check/Before, generate GRN branch wise continuous number (Chennai-MAA, Bengaluru-BLR-XXXXXX)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Continuous Job Number unitwise (Ex: MAA-U1-XXXX)"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Will be implemented during Go-Live"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Add GRN Number in Damage Check/After form"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Spell check Physical weight in Damage Check/After form"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="In Damage Check/After Physical and Chargeable weight should be calculated for all box not for individual box"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="At present Physical and Chargeable weight calculated for group of packages which is required to measure weight &amp; Dimension deviation"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="In Damage Check/After form add comment box to document deviations"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="In Damage Check/After change damage check button name to inspection check report"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="In Damage Check/After inspection report should be downloadable for any condition"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="In Damage Check/After rename Damages as Overage/Shortage and mention the count in next text box and move to Damage Check/Before form"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="Change in no of units deviation to be mentioned in comment box._x000a_For consistency, Overage/Shortages retained as &quot;Quantity Change&quot;"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="In Damage Check/After move Ratification process to Damage Check/Before form"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="In Damage Check/After move rename Quantity deviation as Quantity deviation (in open Box) and move to Damage Check/Before form "/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="In Damage Check/After add Fumigation Status (Yes/No). If fumigation is No then add a drop down with options (BVM,Customer) Venkat/Raghu to provide further process when fumigation Â come under BVM"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Add &quot;Marks &amp; numbers&quot; (yes/no) in &quot;Damage Check/Before&quot;. If No, hold the process and proceed upon customer approval"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Rename &quot;Damage Check/Before&quot; to &quot;Check/Before offloading&quot; and &quot;Damage Check/After&quot; to &quot;Inspection&quot;"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="In Warehouse-In form, branch and unit should be tagged to user id"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="In Dispatch, add E-Waybill number, delivery challan"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="Like to know what content to be added in delivery Chellan"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="In Dispatch, validate driver, truck, OTL with customer email"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Validation controlled by process"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="In Loading Bay, move Dock-In time above Start time"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="As per point 8, Dock-In time removed from loading bay form"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Share hardware configuration and cost for Tablet, QR Scanner, QR printer to BVM team"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Schedule recurring meeting for every Saturday"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="in add/update insurance, include insured amount and premium"/>
+    <s v="WMS"/>
+    <s v="BVM Team"/>
+    <d v="2022-09-24T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="In customer data, add email field for operations lead"/>
+    <s v="WMS"/>
+    <s v="Sony"/>
+    <d v="2022-12-22T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Remove Checked-In Status in Warehouse-In form"/>
+    <s v="WMS"/>
+    <s v="Jose"/>
+    <d v="2023-01-07T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="To be aligned as per the Process and not and alphabetic order"/>
+    <s v="WMS"/>
+    <s v="Jose"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Commodity list to be provided for Masters"/>
+    <s v="WMS"/>
+    <s v="Venkat"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Pre-Gatein (OTL, Lock &amp; Key, NIL)"/>
+    <s v="WMS"/>
+    <s v="Jose"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="To work on Shipper invoice currency"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="Currency value should match invoice. So existing process holds good. "/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="In Damage Check/Before Offloading change Quantity Deviation to Packages Deviation"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <s v="Retaining &quot;Quantity Deviation&quot; instead of &quot;Package Deviation&quot;"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="In Damage Check/Before Offloading when Damages is not 'Nill Damage' or Quantity Devition or Ratification Process or Marks &amp; Numbers is 'No' then Status should be 'Hold'"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <s v="Retaining &quot;Work In Progress&quot; instead of hold."/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Include camera option to upload the pics."/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Fumigation Status - Inspection screen"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Check Fumigation"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="In the inspection tab capture the weight and no of pacakages deviation"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="In Warehouse in tab check no of pieces is considered for storage."/>
+    <s v="WMS"/>
+    <s v="Jose"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-11T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="View option to be creasted for sridhar sir"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="DSR "/>
+    <s v="WMS"/>
+    <s v="Venkat"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="In storage report tab check the date formating for the check-out time"/>
+    <s v="WMS"/>
+    <s v="Sridar Sir"/>
+    <d v="2023-01-09T00:00:00"/>
+    <x v="1"/>
+    <d v="2023-01-14T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Packing Type : Wooden Case, Carton Box, Ply wood. If wooden case : Fumigation to appear. Fumigation : Yes &amp; No. Yes to be completed. No : Customer or BVM (colour code). BVM : Date to be filled and accordingly. If fumigation done by BVM then, the cost should be included in billing. "/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-01-11T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-14T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="Billing for fumigation alone pending"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Dimension : Multiple line items to be clubbed"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-01-11T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Empty truck photo to be in warehouse in tab"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-01-11T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="Already available in &quot;Damage Check Before/Offloading&quot; orm"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Multiple MAWB &amp; HAWB to be added"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-01-11T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="In warehousemaster rate form, bring customer short name in drop down"/>
+    <s v="WMS"/>
+    <s v="Sony"/>
+    <d v="2023-01-12T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="In Goods report form, headers are not alinged in with content. Check in similar forms as well."/>
+    <s v="WMS"/>
+    <s v="Sony"/>
+    <d v="2023-01-12T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Re-Order side Nave in WMS. _x000a_Pre-Gate In, Warehouse Jobs, Goods Report, Dispatch, Invoice, Reports, WMS Misc."/>
+    <s v="WMS"/>
+    <s v="Sony"/>
+    <d v="2023-01-12T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-12T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="In Stock Value report, round off total to 2 decimal places."/>
+    <s v="WMS"/>
+    <s v="Jose"/>
+    <d v="2023-01-12T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-12T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="In Gate-In Form, don’t show pre-gatein ID's for checked out jobs"/>
+    <s v="WMS"/>
+    <s v="Jose"/>
+    <d v="2023-01-13T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="Since pre-gatein number linked to multiple WH jobs, its not possible to remove from list."/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="WMS dashboard: Pending for invoice and bring reports to WH dashboard"/>
+    <s v="WMS"/>
+    <s v="Sony"/>
+    <d v="2023-01-14T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="In invoice, partial billing to be calculated."/>
+    <s v="WMS"/>
+    <s v="Sony"/>
+    <d v="2023-01-14T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="In WMS dashboard, show goods older than 7 days"/>
+    <s v="WMS"/>
+    <s v="Sony"/>
+    <d v="2023-01-14T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Add total invoice weight in inspection sheet. Entering weight for each box is not feasible."/>
+    <s v="WMS"/>
+    <s v="Venkat"/>
+    <d v="2023-01-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="To be discussed with Sridhar Sir"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Check INR Calculation"/>
+    <s v="WMS"/>
+    <s v="Venkat"/>
+    <d v="2023-01-18T00:00:00"/>
+    <x v="1"/>
+    <d v="2023-01-19T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Add PO number"/>
+    <s v="WMS"/>
+    <s v="Venkat"/>
+    <d v="2023-01-18T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-25T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Check chargable weight and CBM calcualtion"/>
+    <s v="WMS"/>
+    <s v="Venkat"/>
+    <d v="2023-01-18T00:00:00"/>
+    <x v="1"/>
+    <d v="2023-01-18T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Prepare sock reprot as per DSR shared by venkat"/>
+    <s v="WMS"/>
+    <s v="Venkat"/>
+    <d v="2023-01-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="In inspection form, Add goods count &amp; weight comparison between invoice and check-In"/>
+    <s v="WMS"/>
+    <s v="Jose"/>
+    <d v="2023-01-25T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-25T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="In Inspection form, check-In weight and count throwing round off error"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-01-27T00:00:00"/>
+    <x v="1"/>
+    <d v="2023-01-27T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="In inspection form, remove validation for excess weight"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-01-30T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-31T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="Once Dispatch status is completed, update Dispatch status t &quot;Yes&quot; in gatein table database"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-01-30T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-01-31T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="Audit Module for TMS WMS PMS - Audit Manual, checklist, score card and reports"/>
+    <s v="WMS"/>
+    <s v="Sridhar"/>
+    <d v="2023-02-03T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="Sridhar sir to provide detailed requirement."/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="Sales Management System (SMS)"/>
+    <s v="WMS"/>
+    <s v="Sridhar"/>
+    <d v="2023-02-03T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-26T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="Sridhar sir to provide detailed requirement."/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="Insurance Module to be changed"/>
+    <s v="WMS"/>
+    <s v="Sridhar"/>
+    <d v="2023-02-03T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-02-11T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="Sony to provide more details."/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="Budget Master to be created. Branch,Unit, Expnse type, amount, month"/>
+    <s v="WMS"/>
+    <s v="Sridhar"/>
+    <d v="2023-02-03T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="Sony to provide more details."/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="In expense add form, service start and end date to be same"/>
+    <s v="WMS"/>
+    <s v="Sridhar"/>
+    <d v="2023-02-03T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="Sony to provide more details."/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="Income Master line item to be defined"/>
+    <s v="WMS"/>
+    <s v="Sridhar"/>
+    <d v="2023-02-03T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="Sony to provide more details."/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="Check remarks field for Inward, storage and dispatch"/>
+    <s v="WMS"/>
+    <s v="Sridhar"/>
+    <d v="2023-02-03T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="In Dispatch form, increase text field size"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-02-16T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-02-16T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="Create route master"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="In Trip details, move 'Delivery Image' and 'Proof Of Delivery' to Trip closure."/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="In Vehicle master, vehicle details, enginer number should be alpha numberic"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-02-18T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="In Vehicle master, vehicle details battery number should be alpha numberic"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-02-18T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="In Vehicle master, insurance details insurance copy should be attachable"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="In Vehicle master, RTO details FC copy should be attachable"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="In Vehicle master, RTO details Road Tax copy should be attachable"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="In Vehicle master, Permit and pollution control details permit copy should be attachable"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="In Vehicle master, Permit and pollution control details pollution certificate copy should be attachable"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="In vendor add form, GSTIN number set size  to 15"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-02-18T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="In Expense add form, split total bills into multiple line items."/>
+    <s v="TMS"/>
+    <s v="Blessy"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="In Vehicle master, change ICV to IDV"/>
+    <s v="TMS"/>
+    <s v="Karthik"/>
+    <d v="2023-02-18T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-02-18T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="101"/>
+    <s v="In Consignment note add, add customer code"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="In Enquiry note add, aassigned to should be from login user"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="In Consignment note add, add touch point between from and to"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="In Consignment add, consigner, consignee,Consigner Invoice, Consigner Value, Value in INR, No of Pieces, weight to be added as separate line item"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="In Consignment add, move ebill no, date of Issue, Date of validity to trip details form"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="106"/>
+    <s v="In Consignment add,remove 'Container' for 'Container Description' label."/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="107"/>
+    <s v="In Consignment add,remove Dimension"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="108"/>
+    <s v="In Consignment add,add 'Movement type' with FTL, LTL as drop down"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="109"/>
+    <s v="In Consignment add,change 'Movement' to 'Consignent Type'"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="110"/>
+    <s v="In Consignment add,change 'Movement' to 'Consignent Type'"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="111"/>
+    <s v="In Consignment add,add 'Freight Amount'"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="112"/>
+    <s v="In Tripdetails add, include 'Biling Type' drop down. Vehicle Type Requested, Vehicle Type Placed"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="In Tripdetails add, change 'Vehicle Type' label to 'Vehicle Type Placed'."/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="114"/>
+    <s v="In Tripdetails add, update driver name as drop down and pull license number, contact number from database"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="In Tripdetails add,From Location, To Location, Starting Km, Ending KM, Starting Date, Ending Date as seprate Row Items"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="In Trip closure, change 'cost' in all labels to 'Charges'"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="117"/>
+    <s v="In Trip closure, add 'Handling Charges and Halting Charges"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="In Trip closure, add customer ref no"/>
+    <s v="TMS"/>
+    <s v="Sony"/>
+    <d v="2023-02-21T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="119"/>
+    <s v="In Damage check after, unable to add new line item"/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-02-22T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-02-23T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="120"/>
+    <s v="In dispatch list, MAWB &amp; HAWB numbers were same."/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-02-24T00:00:00"/>
+    <x v="1"/>
+    <d v="2023-02-24T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="In warehouse goods model file, shipper invpoice value is incorrect."/>
+    <s v="WMS"/>
+    <s v="Prakash"/>
+    <d v="2023-03-18T00:00:00"/>
+    <x v="1"/>
+    <d v="2023-03-18T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="122"/>
+    <s v="Create separae customer database for warehouse transport, packing"/>
+    <s v="WMS,TMS,PMS"/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="123"/>
+    <s v="While sharing parent screen is not apperain inother screeen"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="Not an issue with application. Issues resolved when entire screen is shared than sharing only the application."/>
+  </r>
+  <r>
+    <n v="124"/>
+    <s v="In  Customer Master add BVM Business (BVM Trans Solution, BVM Pack Solutions, BVM Storae Solutions), attachment for Contract, Contract Validity date From and To TO"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="125"/>
+    <s v="In revenue report, BVM companywise report to be generated."/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="128"/>
+    <s v="In Sale form, Requirement : not required"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="129"/>
+    <s v="Manpower to be changed as Other Requireemnt with Open text box"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="130"/>
+    <s v="Day call to be removed from Transport requireemnt drop down"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="131"/>
+    <s v="Wooden Box Spelling"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="132"/>
+    <s v="To check for BVM Admin to add Product master in each vertical"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="133"/>
+    <s v="Type of supply to be enable only for packing requirement and mandatory"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="KT provided to Sony"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <s v="Location to be renamed as handling office"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="change not required"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <s v="Is customer name to have location as suffix also or location to be in separate field"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="change not required"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <s v="Type of Call : TO have E-mail as an option"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="137"/>
+    <s v="Natrue of Call : To haveExisting as an option"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="138"/>
+    <s v="Purpose of Call : Customer complaint,After Sales"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="139"/>
+    <s v="Decision maker : Not applicable refers to whom (remove Not applicable)"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="140"/>
+    <s v="Joint Call : Yes/No to be created"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="change not required"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <s v="Volume/Business potentail to be seperated"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="142"/>
+    <s v="Prospective custor : Not applicable ro be removed"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="143"/>
+    <s v="Prospective custor : If No drop down to be added"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="Rate not competitive, Business model not viable, Customer well aligned with current vendor, Not immediate,"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <s v="Business won:  If No drop down to be added"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <s v="Not competitive, sales closing not effective, late response"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <s v="Date of quote sent till business win date system to trigger a dash board with data of quote sent vs business win (Calculate no of days between quote sent and business start)"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="146"/>
+    <s v="Status: Business started, Customer response pending"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="147"/>
+    <s v="Sales Call Owner name field required"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="change not required"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <s v="Customers Revenue to be aligned with the sales person"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="149"/>
+    <s v="Weekly sales report template"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="150"/>
+    <s v="date range"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="151"/>
+    <s v="name of the sales person"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="152"/>
+    <s v="list of customers/ no of calls"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="153"/>
+    <s v="current status"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="154"/>
+    <s v="date of business start"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="155"/>
+    <s v="billing done as on date for the month"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="156"/>
+    <s v="AR as on date"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="157"/>
+    <s v="Customer code field to be created"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="change not required"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <s v="Manpower Requirement to be removed and added in Facility manamgnet"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-03-28T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="159"/>
+    <s v="add Status, quote sent date, business start date in list page and difference"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-09-30T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-03-30T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="160"/>
+    <s v="Add auto generated filed for sales order number"/>
+    <s v="Sales "/>
+    <s v="Sony"/>
+    <d v="2023-09-30T00:00:00"/>
+    <x v="0"/>
+    <d v="2023-04-01T00:00:00"/>
+    <s v="Jose"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Sl No" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1933,10 +5144,10 @@
   <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H162" sqref="H162"/>
+      <selection pane="bottomRight" activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,7 +5209,9 @@
       <c r="E2" s="12">
         <v>44828</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G2" s="12">
         <v>44927</v>
       </c>
@@ -2026,7 +5239,9 @@
       <c r="E3" s="12">
         <v>44828</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="9" t="s">
@@ -2052,7 +5267,9 @@
       <c r="E4" s="12">
         <v>44828</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G4" s="12">
         <v>44927</v>
       </c>
@@ -2080,7 +5297,9 @@
       <c r="E5" s="12">
         <v>44828</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="9" t="s">
@@ -2106,7 +5325,9 @@
       <c r="E6" s="12">
         <v>44828</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G6" s="12">
         <v>44927</v>
       </c>
@@ -2134,7 +5355,9 @@
       <c r="E7" s="12">
         <v>44828</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
@@ -2160,7 +5383,9 @@
       <c r="E8" s="12">
         <v>44828</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G8" s="12">
         <v>44927</v>
       </c>
@@ -2188,7 +5413,9 @@
       <c r="E9" s="12">
         <v>44828</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G9" s="12">
         <v>44927</v>
       </c>
@@ -2216,7 +5443,9 @@
       <c r="E10" s="12">
         <v>44828</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="10" t="s">
@@ -2240,7 +5469,9 @@
       <c r="E11" s="12">
         <v>44828</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="10" t="s">
@@ -2264,7 +5495,9 @@
       <c r="E12" s="12">
         <v>44828</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="10" t="s">
@@ -2288,7 +5521,9 @@
       <c r="E13" s="12">
         <v>44828</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G13" s="12">
         <v>44927</v>
       </c>
@@ -2316,7 +5551,9 @@
       <c r="E14" s="12">
         <v>44828</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="9" t="s">
@@ -2342,7 +5579,9 @@
       <c r="E15" s="12">
         <v>44828</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="10" t="s">
@@ -2366,7 +5605,9 @@
       <c r="E16" s="12">
         <v>44828</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G16" s="12">
         <v>44927</v>
       </c>
@@ -2394,7 +5635,9 @@
       <c r="E17" s="12">
         <v>44828</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="10" t="s">
@@ -2418,7 +5661,9 @@
       <c r="E18" s="12">
         <v>44828</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G18" s="12">
         <v>44927</v>
       </c>
@@ -2446,7 +5691,9 @@
       <c r="E19" s="12">
         <v>44828</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G19" s="12">
         <v>44927</v>
       </c>
@@ -2474,7 +5721,9 @@
       <c r="E20" s="12">
         <v>44828</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G20" s="12">
         <v>44927</v>
       </c>
@@ -2502,7 +5751,9 @@
       <c r="E21" s="12">
         <v>44828</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="10" t="s">
@@ -2526,7 +5777,9 @@
       <c r="E22" s="12">
         <v>44828</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="10" t="s">
@@ -2550,7 +5803,9 @@
       <c r="E23" s="12">
         <v>44828</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="10" t="s">
@@ -2574,7 +5829,9 @@
       <c r="E24" s="12">
         <v>44828</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G24" s="12">
         <v>44927</v>
       </c>
@@ -2602,7 +5859,9 @@
       <c r="E25" s="12">
         <v>44828</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="9" t="s">
@@ -2628,7 +5887,9 @@
       <c r="E26" s="12">
         <v>44828</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G26" s="12">
         <v>44927</v>
       </c>
@@ -2656,7 +5917,9 @@
       <c r="E27" s="12">
         <v>44828</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G27" s="12">
         <v>44927</v>
       </c>
@@ -2684,7 +5947,9 @@
       <c r="E28" s="12">
         <v>44828</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="9" t="s">
@@ -2710,7 +5975,9 @@
       <c r="E29" s="12">
         <v>44828</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G29" s="12">
         <v>44927</v>
       </c>
@@ -2738,7 +6005,9 @@
       <c r="E30" s="12">
         <v>44828</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G30" s="12">
         <v>44927</v>
       </c>
@@ -2766,7 +6035,9 @@
       <c r="E31" s="12">
         <v>44828</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G31" s="12">
         <v>44927</v>
       </c>
@@ -2794,7 +6065,9 @@
       <c r="E32" s="12">
         <v>44828</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G32" s="12">
         <v>44927</v>
       </c>
@@ -2824,7 +6097,9 @@
       <c r="E33" s="12">
         <v>44828</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G33" s="12">
         <v>44927</v>
       </c>
@@ -2852,7 +6127,9 @@
       <c r="E34" s="12">
         <v>44828</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G34" s="12">
         <v>44927</v>
       </c>
@@ -2880,7 +6157,9 @@
       <c r="E35" s="12">
         <v>44828</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G35" s="12">
         <v>44927</v>
       </c>
@@ -2908,7 +6187,9 @@
       <c r="E36" s="12">
         <v>44828</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G36" s="12">
         <v>44927</v>
       </c>
@@ -2936,7 +6217,9 @@
       <c r="E37" s="12">
         <v>44828</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G37" s="12">
         <v>44927</v>
       </c>
@@ -2964,7 +6247,9 @@
       <c r="E38" s="12">
         <v>44828</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G38" s="12">
         <v>44927</v>
       </c>
@@ -2992,7 +6277,9 @@
       <c r="E39" s="12">
         <v>44828</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G39" s="12">
         <v>44927</v>
       </c>
@@ -3022,7 +6309,9 @@
       <c r="E40" s="12">
         <v>44828</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="9" t="s">
@@ -3048,7 +6337,9 @@
       <c r="E41" s="12">
         <v>44828</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="9" t="s">
@@ -3074,7 +6365,9 @@
       <c r="E42" s="12">
         <v>44828</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="10" t="s">
@@ -3098,7 +6391,9 @@
       <c r="E43" s="12">
         <v>44828</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="10" t="s">
@@ -3122,7 +6417,9 @@
       <c r="E44" s="12">
         <v>44828</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="10" t="s">
@@ -3146,7 +6443,9 @@
       <c r="E45" s="12">
         <v>44917</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="10" t="s">
@@ -3170,7 +6469,9 @@
       <c r="E46" s="13">
         <v>44933</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="10" t="s">
@@ -3194,7 +6495,9 @@
       <c r="E47" s="13">
         <v>44935</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="10" t="s">
@@ -3218,7 +6521,9 @@
       <c r="E48" s="13">
         <v>44935</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="10" t="s">
@@ -3242,7 +6547,9 @@
       <c r="E49" s="13">
         <v>44935</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="10" t="s">
@@ -3266,7 +6573,9 @@
       <c r="E50" s="13">
         <v>44935</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="15" t="s">
@@ -3292,7 +6601,9 @@
       <c r="E51" s="13">
         <v>44935</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="5" t="s">
@@ -3318,7 +6629,9 @@
       <c r="E52" s="13">
         <v>44935</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="5" t="s">
@@ -3344,7 +6657,9 @@
       <c r="E53" s="13">
         <v>44935</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="10" t="s">
@@ -3368,7 +6683,9 @@
       <c r="E54" s="13">
         <v>44935</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="5" t="s">
@@ -3392,7 +6709,9 @@
       <c r="E55" s="13">
         <v>44935</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="5" t="s">
@@ -3416,7 +6735,9 @@
       <c r="E56" s="13">
         <v>44935</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="10" t="s">
@@ -3440,7 +6761,9 @@
       <c r="E57" s="13">
         <v>44935</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G57" s="13">
         <v>44937</v>
       </c>
@@ -3468,7 +6791,9 @@
       <c r="E58" s="13">
         <v>44935</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="10" t="s">
@@ -3492,7 +6817,9 @@
       <c r="E59" s="13">
         <v>44935</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="10" t="s">
@@ -3578,7 +6905,9 @@
       <c r="E62" s="13">
         <v>44937</v>
       </c>
-      <c r="F62" s="13"/>
+      <c r="F62" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="10" t="s">
@@ -3602,7 +6931,9 @@
       <c r="E63" s="13">
         <v>44937</v>
       </c>
-      <c r="F63" s="13"/>
+      <c r="F63" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="15" t="s">
@@ -3628,7 +6959,9 @@
       <c r="E64" s="13">
         <v>44937</v>
       </c>
-      <c r="F64" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="10" t="s">
@@ -3652,7 +6985,9 @@
       <c r="E65" s="13">
         <v>44938</v>
       </c>
-      <c r="F65" s="13"/>
+      <c r="F65" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="10" t="s">
@@ -3676,7 +7011,9 @@
       <c r="E66" s="13">
         <v>44938</v>
       </c>
-      <c r="F66" s="13"/>
+      <c r="F66" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="14" t="s">
@@ -3700,7 +7037,9 @@
       <c r="E67" s="13">
         <v>44938</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="F67" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G67" s="13">
         <v>44938</v>
       </c>
@@ -6518,6 +9857,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="41">
+        <v>6</v>
+      </c>
+      <c r="C3" s="41">
+        <v>71</v>
+      </c>
+      <c r="D3" s="41">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41">
+        <v>62</v>
+      </c>
+      <c r="D4" s="41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41">
+        <v>9</v>
+      </c>
+      <c r="D5" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41">
+        <v>9</v>
+      </c>
+      <c r="D6" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="41">
+        <v>1</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="41">
+        <v>7</v>
+      </c>
+      <c r="C8" s="41">
+        <v>151</v>
+      </c>
+      <c r="D8" s="41">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6583,7 +10043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="300">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -919,6 +919,18 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>In customer add form, check mandatory fileds for customer contact, email etc.</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>In Invoice add &amp; list page, change voucher number to BVM invoice number</t>
+  </si>
+  <si>
+    <t>In Invoice add form, change e-invoice number as non-mandatory</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1525,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1629,6 +1641,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5141,13 +5156,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F160" sqref="F160"/>
+      <selection pane="bottomRight" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9654,6 +9669,66 @@
         <v>44</v>
       </c>
       <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>161</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" s="44">
+        <v>45017</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>162</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E161" s="44">
+        <v>45017</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>163</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E162" s="44">
+        <v>45017</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J159"/>
@@ -9860,7 +9935,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -17,19 +17,20 @@
     <sheet name="Progress" sheetId="5" r:id="rId3"/>
     <sheet name="Project_Progress" sheetId="3" r:id="rId4"/>
     <sheet name="Sales" sheetId="4" r:id="rId5"/>
+    <sheet name="Dispatch_relation" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$192</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="388">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1066,7 +1067,140 @@
     <t>In Gate-In form add "MAWB" &amp; "HAWB" number</t>
   </si>
   <si>
-    <t>In dispatch form, remove "MAWB &amp; HAWB" number</t>
+    <t>As per discussion with prakash on 04-May-23, we decided to add only HAWB in gate-in form</t>
+  </si>
+  <si>
+    <t>In dispatch form, remove "HAWB" number</t>
+  </si>
+  <si>
+    <t>Pre-Dispatch_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispatch number1 </t>
+  </si>
+  <si>
+    <t>MAWB1</t>
+  </si>
+  <si>
+    <t>Truck No</t>
+  </si>
+  <si>
+    <t>HAWB1</t>
+  </si>
+  <si>
+    <t>Invoice1</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Stock1</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Stock2</t>
+  </si>
+  <si>
+    <t>Truck Type</t>
+  </si>
+  <si>
+    <t>Stock3</t>
+  </si>
+  <si>
+    <t>HAWB2</t>
+  </si>
+  <si>
+    <t>Invoice2</t>
+  </si>
+  <si>
+    <t>Stock4</t>
+  </si>
+  <si>
+    <t>Stock5</t>
+  </si>
+  <si>
+    <t>Stock6</t>
+  </si>
+  <si>
+    <t>MAWB2</t>
+  </si>
+  <si>
+    <t>HAWB3</t>
+  </si>
+  <si>
+    <t>Invoice3</t>
+  </si>
+  <si>
+    <t>Stock7</t>
+  </si>
+  <si>
+    <t>Stock8</t>
+  </si>
+  <si>
+    <t>Stock9</t>
+  </si>
+  <si>
+    <t>HAWB4</t>
+  </si>
+  <si>
+    <t>Invoice4</t>
+  </si>
+  <si>
+    <t>Stock10</t>
+  </si>
+  <si>
+    <t>Stock11</t>
+  </si>
+  <si>
+    <t>In Invoice add form, crane and forklift charges should be Zero when invoice is not added</t>
+  </si>
+  <si>
+    <t>In AR add form, add input field for total payment and balance payment</t>
+  </si>
+  <si>
+    <t>In Dispatch add form, remove Shipping Date.</t>
+  </si>
+  <si>
+    <t>In Dispatch list form, Sticker Fixed Value not populating</t>
+  </si>
+  <si>
+    <t>In  Gate-In list form, dispatch status is incorrect</t>
+  </si>
+  <si>
+    <t>In Invoice list form, loading and unloading charges to be calculated separately for each job number.</t>
+  </si>
+  <si>
+    <t>In Dispatch form, ewaybill not populated propelry</t>
+  </si>
+  <si>
+    <t>In Stock report, show gross weight and total package count (physical)</t>
+  </si>
+  <si>
+    <t>In inspection form, check volume weight formula.</t>
+  </si>
+  <si>
+    <t>In Inspection report, FUMIGATION SHOULD BE Y/N</t>
+  </si>
+  <si>
+    <t>In Stock report, DESTINATION COLUMN - NOT SHOWING DEST</t>
+  </si>
+  <si>
+    <t>Venkat confirmed to link destination in Gate-In form for stock report</t>
+  </si>
+  <si>
+    <t>Venkat confirmed to link chargable weight</t>
+  </si>
+  <si>
+    <t>No issues observed.
+MAA_WH_Job_270649,Dispatch_127774</t>
+  </si>
+  <si>
+    <t>Random numbers duplicate in WH_Job, GRN, Stock numbers</t>
+  </si>
+  <si>
+    <t>After saving Gate-In, Goods-Receipt, Damage Check Before/after, Inspection, Warehouse-In,Storage forms stay back in same page.</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1609,6 +1743,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1654,7 +1846,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1733,18 +1925,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1768,6 +1948,57 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2281,11 +2512,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2078087232"/>
-        <c:axId val="2043602864"/>
+        <c:axId val="332472960"/>
+        <c:axId val="332474048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078087232"/>
+        <c:axId val="332472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043602864"/>
+        <c:crossAx val="332474048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2336,7 +2567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043602864"/>
+        <c:axId val="332474048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078087232"/>
+        <c:crossAx val="332472960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5863,22 +6094,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
+      <selection pane="bottomRight" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="80.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" style="45" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="22.5546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -5888,7 +6119,7 @@
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -5987,7 +6218,7 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -6020,7 +6251,7 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -6051,7 +6282,7 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -6084,7 +6315,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -6115,7 +6346,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -6148,7 +6379,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -6181,7 +6412,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -6210,7 +6441,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -6239,7 +6470,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -6268,7 +6499,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -6301,7 +6532,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -6332,7 +6563,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -6361,7 +6592,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -6394,7 +6625,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -6423,7 +6654,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -6456,7 +6687,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -6489,7 +6720,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -6522,7 +6753,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -6551,7 +6782,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="11" t="s">
         <v>302</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -6580,7 +6811,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -6609,7 +6840,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -6642,7 +6873,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -6673,7 +6904,7 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -6706,7 +6937,7 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -6739,7 +6970,7 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -6770,7 +7001,7 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -6803,7 +7034,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -6836,7 +7067,7 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -7257,7 +7488,7 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="26" t="s">
@@ -7286,7 +7517,7 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="26" t="s">
@@ -7315,7 +7546,7 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="26" t="s">
@@ -7344,7 +7575,7 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -7373,7 +7604,7 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="26" t="s">
@@ -7402,7 +7633,7 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="26" t="s">
@@ -7431,7 +7662,7 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -7462,7 +7693,7 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="26" t="s">
@@ -7493,7 +7724,7 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C52" s="26" t="s">
@@ -7524,7 +7755,7 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -7553,7 +7784,7 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="26" t="s">
@@ -7582,7 +7813,7 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="26" t="s">
@@ -7611,7 +7842,7 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="11" t="s">
         <v>307</v>
       </c>
       <c r="C56" s="26" t="s">
@@ -7640,7 +7871,7 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="26" t="s">
@@ -7673,7 +7904,7 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -7702,7 +7933,7 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="26" t="s">
@@ -7731,7 +7962,7 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="11" t="s">
         <v>309</v>
       </c>
       <c r="C60" s="26" t="s">
@@ -7764,7 +7995,7 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="11" t="s">
         <v>310</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -7799,7 +8030,7 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="26" t="s">
@@ -7828,7 +8059,7 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="26" t="s">
@@ -7859,7 +8090,7 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -7888,7 +8119,7 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C65" s="26" t="s">
@@ -7917,7 +8148,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C66" s="26" t="s">
@@ -7946,7 +8177,7 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C67" s="26" t="s">
@@ -7979,7 +8210,7 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C68" s="26" t="s">
@@ -8012,7 +8243,7 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C69" s="26" t="s">
@@ -8043,7 +8274,7 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="26" t="s">
@@ -8072,7 +8303,7 @@
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="26" t="s">
@@ -8101,7 +8332,7 @@
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C72" s="26" t="s">
@@ -8130,7 +8361,7 @@
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="26" t="s">
@@ -8161,7 +8392,7 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C74" s="26" t="s">
@@ -8194,7 +8425,7 @@
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C75" s="26" t="s">
@@ -8227,7 +8458,7 @@
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C76" s="26" t="s">
@@ -8260,7 +8491,7 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="11" t="s">
         <v>315</v>
       </c>
       <c r="C77" s="26" t="s">
@@ -8289,7 +8520,7 @@
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C78" s="26" t="s">
@@ -8322,7 +8553,7 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="26" t="s">
@@ -8355,7 +8586,7 @@
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C80" s="26" t="s">
@@ -8388,7 +8619,7 @@
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C81" s="26" t="s">
@@ -8421,7 +8652,7 @@
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C82" s="26" t="s">
@@ -8452,7 +8683,7 @@
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C83" s="26" t="s">
@@ -8487,7 +8718,7 @@
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C84" s="26" t="s">
@@ -8522,7 +8753,7 @@
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="11" t="s">
         <v>316</v>
       </c>
       <c r="C85" s="26" t="s">
@@ -8553,7 +8784,7 @@
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C86" s="26" t="s">
@@ -8584,7 +8815,7 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C87" s="26" t="s">
@@ -8615,7 +8846,7 @@
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C88" s="26" t="s">
@@ -8644,7 +8875,7 @@
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="11" t="s">
         <v>155</v>
       </c>
       <c r="C89" s="26" t="s">
@@ -8677,7 +8908,7 @@
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C90" s="26" t="s">
@@ -8706,7 +8937,7 @@
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C91" s="27" t="s">
@@ -8735,7 +8966,7 @@
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -8768,7 +8999,7 @@
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C93" s="27" t="s">
@@ -8801,7 +9032,7 @@
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C94" s="27" t="s">
@@ -8830,7 +9061,7 @@
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="11" t="s">
         <v>163</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -8859,7 +9090,7 @@
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C96" s="27" t="s">
@@ -8888,7 +9119,7 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C97" s="27" t="s">
@@ -8917,7 +9148,7 @@
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -8946,7 +9177,7 @@
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C99" s="27" t="s">
@@ -8979,7 +9210,7 @@
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="11" t="s">
         <v>168</v>
       </c>
       <c r="C100" s="27" t="s">
@@ -9008,7 +9239,7 @@
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -9041,7 +9272,7 @@
       <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C102" s="27" t="s">
@@ -9070,7 +9301,7 @@
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C103" s="27" t="s">
@@ -9099,7 +9330,7 @@
       <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C104" s="27" t="s">
@@ -9128,7 +9359,7 @@
       <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C105" s="27" t="s">
@@ -9157,7 +9388,7 @@
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C106" s="27" t="s">
@@ -9186,7 +9417,7 @@
       <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C107" s="27" t="s">
@@ -9215,7 +9446,7 @@
       <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -9244,7 +9475,7 @@
       <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C109" s="27" t="s">
@@ -9273,7 +9504,7 @@
       <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C110" s="27" t="s">
@@ -9302,7 +9533,7 @@
       <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -9331,7 +9562,7 @@
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C112" s="27" t="s">
@@ -9360,7 +9591,7 @@
       <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C113" s="27" t="s">
@@ -9389,7 +9620,7 @@
       <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -9418,7 +9649,7 @@
       <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C115" s="27" t="s">
@@ -9447,7 +9678,7 @@
       <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C116" s="27" t="s">
@@ -9476,7 +9707,7 @@
       <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -9505,7 +9736,7 @@
       <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C118" s="27" t="s">
@@ -9534,7 +9765,7 @@
       <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C119" s="27" t="s">
@@ -9563,7 +9794,7 @@
       <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -9596,7 +9827,7 @@
       <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C121" s="27" t="s">
@@ -9629,7 +9860,7 @@
       <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C122" s="27" t="s">
@@ -9662,7 +9893,7 @@
       <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C123" s="27" t="s">
@@ -9691,7 +9922,7 @@
       <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="41" t="s">
         <v>230</v>
       </c>
       <c r="C124" s="27" t="s">
@@ -9722,7 +9953,7 @@
       <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C125" s="27" t="s">
@@ -9746,7 +9977,7 @@
       <c r="I125" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J125" s="43" t="s">
+      <c r="J125" s="39" t="s">
         <v>41</v>
       </c>
       <c r="K125" s="4"/>
@@ -9755,7 +9986,7 @@
       <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C126" s="27" t="s">
@@ -9784,7 +10015,7 @@
       <c r="A127" s="3">
         <v>128</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C127" s="27" t="s">
@@ -9817,7 +10048,7 @@
       <c r="A128" s="3">
         <v>129</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C128" s="27" t="s">
@@ -9850,7 +10081,7 @@
       <c r="A129" s="3">
         <v>130</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="11" t="s">
         <v>261</v>
       </c>
       <c r="C129" s="27" t="s">
@@ -9883,7 +10114,7 @@
       <c r="A130" s="3">
         <v>131</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C130" s="27" t="s">
@@ -9916,7 +10147,7 @@
       <c r="A131" s="3">
         <v>132</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -9949,7 +10180,7 @@
       <c r="A132" s="3">
         <v>133</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C132" s="27" t="s">
@@ -9984,7 +10215,7 @@
       <c r="A133" s="3">
         <v>134</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C133" s="27" t="s">
@@ -10015,7 +10246,7 @@
       <c r="A134" s="3">
         <v>135</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="11" t="s">
         <v>235</v>
       </c>
       <c r="C134" s="27" t="s">
@@ -10046,7 +10277,7 @@
       <c r="A135" s="3">
         <v>136</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="11" t="s">
         <v>236</v>
       </c>
       <c r="C135" s="27" t="s">
@@ -10079,7 +10310,7 @@
       <c r="A136" s="3">
         <v>137</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C136" s="27" t="s">
@@ -10112,7 +10343,7 @@
       <c r="A137" s="3">
         <v>138</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C137" s="27" t="s">
@@ -10145,7 +10376,7 @@
       <c r="A138" s="3">
         <v>139</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="11" t="s">
         <v>266</v>
       </c>
       <c r="C138" s="27" t="s">
@@ -10178,7 +10409,7 @@
       <c r="A139" s="3">
         <v>140</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C139" s="27" t="s">
@@ -10209,7 +10440,7 @@
       <c r="A140" s="3">
         <v>141</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C140" s="27" t="s">
@@ -10242,7 +10473,7 @@
       <c r="A141" s="3">
         <v>142</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C141" s="27" t="s">
@@ -10275,7 +10506,7 @@
       <c r="A142" s="3">
         <v>143</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -10310,7 +10541,7 @@
       <c r="A143" s="3">
         <v>144</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="11" t="s">
         <v>241</v>
       </c>
       <c r="C143" s="27" t="s">
@@ -10345,7 +10576,7 @@
       <c r="A144" s="3">
         <v>145</v>
       </c>
-      <c r="B144" s="31" t="s">
+      <c r="B144" s="42" t="s">
         <v>269</v>
       </c>
       <c r="C144" s="27" t="s">
@@ -10374,7 +10605,7 @@
       <c r="A145" s="3">
         <v>146</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="43" t="s">
         <v>242</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -10407,7 +10638,7 @@
       <c r="A146" s="3">
         <v>147</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C146" s="27" t="s">
@@ -10438,7 +10669,7 @@
       <c r="A147" s="3">
         <v>148</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="11" t="s">
         <v>244</v>
       </c>
       <c r="C147" s="27" t="s">
@@ -10471,7 +10702,7 @@
       <c r="A148" s="3">
         <v>149</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="44" t="s">
         <v>245</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -10504,7 +10735,7 @@
       <c r="A149" s="3">
         <v>150</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="44" t="s">
         <v>246</v>
       </c>
       <c r="C149" s="27" t="s">
@@ -10537,7 +10768,7 @@
       <c r="A150" s="3">
         <v>151</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="44" t="s">
         <v>247</v>
       </c>
       <c r="C150" s="27" t="s">
@@ -10570,7 +10801,7 @@
       <c r="A151" s="3">
         <v>152</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="44" t="s">
         <v>248</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -10603,7 +10834,7 @@
       <c r="A152" s="3">
         <v>153</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B152" s="44" t="s">
         <v>249</v>
       </c>
       <c r="C152" s="27" t="s">
@@ -10636,7 +10867,7 @@
       <c r="A153" s="3">
         <v>154</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="44" t="s">
         <v>250</v>
       </c>
       <c r="C153" s="27" t="s">
@@ -10669,7 +10900,7 @@
       <c r="A154" s="3">
         <v>155</v>
       </c>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="44" t="s">
         <v>251</v>
       </c>
       <c r="C154" s="27" t="s">
@@ -10702,7 +10933,7 @@
       <c r="A155" s="3">
         <v>156</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="44" t="s">
         <v>252</v>
       </c>
       <c r="C155" s="27" t="s">
@@ -10735,7 +10966,7 @@
       <c r="A156" s="3">
         <v>157</v>
       </c>
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="44" t="s">
         <v>253</v>
       </c>
       <c r="C156" s="27" t="s">
@@ -10766,7 +10997,7 @@
       <c r="A157" s="3">
         <v>158</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="44" t="s">
         <v>254</v>
       </c>
       <c r="C157" s="27" t="s">
@@ -10799,7 +11030,7 @@
       <c r="A158" s="3">
         <v>159</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C158" s="27" t="s">
@@ -10832,7 +11063,7 @@
       <c r="A159" s="3">
         <v>160</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="11" t="s">
         <v>271</v>
       </c>
       <c r="C159" s="27" t="s">
@@ -10865,7 +11096,7 @@
       <c r="A160" s="3">
         <v>161</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="11" t="s">
         <v>276</v>
       </c>
       <c r="C160" s="27" t="s">
@@ -10898,7 +11129,7 @@
       <c r="A161" s="3">
         <v>162</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="11" t="s">
         <v>279</v>
       </c>
       <c r="C161" s="27" t="s">
@@ -10931,7 +11162,7 @@
       <c r="A162" s="3">
         <v>163</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="11" t="s">
         <v>278</v>
       </c>
       <c r="C162" s="27" t="s">
@@ -10964,7 +11195,7 @@
       <c r="A163" s="3">
         <v>164</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="11" t="s">
         <v>280</v>
       </c>
       <c r="C163" s="27" t="s">
@@ -10997,7 +11228,7 @@
       <c r="A164" s="3">
         <v>165</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="11" t="s">
         <v>281</v>
       </c>
       <c r="C164" s="27" t="s">
@@ -11030,7 +11261,7 @@
       <c r="A165" s="3">
         <v>166</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="11" t="s">
         <v>282</v>
       </c>
       <c r="C165" s="27" t="s">
@@ -11063,7 +11294,7 @@
       <c r="A166" s="3">
         <v>167</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="11" t="s">
         <v>284</v>
       </c>
       <c r="C166" s="27" t="s">
@@ -11096,7 +11327,7 @@
       <c r="A167" s="3">
         <v>168</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="11" t="s">
         <v>285</v>
       </c>
       <c r="C167" s="27" t="s">
@@ -11129,7 +11360,7 @@
       <c r="A168" s="3">
         <v>169</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="11" t="s">
         <v>289</v>
       </c>
       <c r="C168" s="27" t="s">
@@ -11158,7 +11389,7 @@
       <c r="A169" s="3">
         <v>170</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="11" t="s">
         <v>290</v>
       </c>
       <c r="C169" s="27" t="s">
@@ -11191,7 +11422,7 @@
       <c r="A170" s="3">
         <v>171</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C170" s="27" t="s">
@@ -11224,7 +11455,7 @@
       <c r="A171" s="3">
         <v>172</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C171" s="27" t="s">
@@ -11257,7 +11488,7 @@
       <c r="A172" s="3">
         <v>173</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="11" t="s">
         <v>293</v>
       </c>
       <c r="C172" s="27" t="s">
@@ -11288,7 +11519,7 @@
       <c r="A173" s="3">
         <v>174</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C173" s="27" t="s">
@@ -11317,7 +11548,7 @@
       <c r="A174" s="3">
         <v>175</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C174" s="27" t="s">
@@ -11350,7 +11581,7 @@
       <c r="A175" s="3">
         <v>175</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="11" t="s">
         <v>294</v>
       </c>
       <c r="C175" s="27" t="s">
@@ -11383,7 +11614,7 @@
       <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="11" t="s">
         <v>295</v>
       </c>
       <c r="C176" s="27" t="s">
@@ -11416,7 +11647,7 @@
       <c r="A177" s="3">
         <v>172</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C177" s="27" t="s">
@@ -11445,7 +11676,7 @@
       <c r="A178" s="3">
         <v>173</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="11" t="s">
         <v>288</v>
       </c>
       <c r="C178" s="27" t="s">
@@ -11474,7 +11705,7 @@
       <c r="A179" s="3">
         <v>174</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="11" t="s">
         <v>298</v>
       </c>
       <c r="C179" s="27" t="s">
@@ -11507,7 +11738,7 @@
       <c r="A180" s="3">
         <v>175</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="11" t="s">
         <v>324</v>
       </c>
       <c r="C180" s="27" t="s">
@@ -11536,7 +11767,7 @@
       <c r="A181" s="3">
         <v>176</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="11" t="s">
         <v>330</v>
       </c>
       <c r="C181" s="27" t="s">
@@ -11565,7 +11796,7 @@
       <c r="A182" s="3">
         <v>177</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="11" t="s">
         <v>333</v>
       </c>
       <c r="C182" s="27" t="s">
@@ -11594,7 +11825,7 @@
       <c r="A183" s="3">
         <v>178</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C183" s="27" t="s">
@@ -11623,7 +11854,7 @@
       <c r="A184" s="3">
         <v>179</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="11" t="s">
         <v>335</v>
       </c>
       <c r="C184" s="27" t="s">
@@ -11652,7 +11883,7 @@
       <c r="A185" s="3">
         <v>180</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="11" t="s">
         <v>336</v>
       </c>
       <c r="C185" s="27" t="s">
@@ -11670,10 +11901,14 @@
       <c r="G185" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
+      <c r="H185" s="13">
+        <v>45050</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J185" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K185" s="4"/>
     </row>
@@ -11681,7 +11916,7 @@
       <c r="A186" s="3">
         <v>181</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="11" t="s">
         <v>337</v>
       </c>
       <c r="C186" s="27" t="s">
@@ -11699,10 +11934,14 @@
       <c r="G186" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
+      <c r="H186" s="13">
+        <v>45050</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J186" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K186" s="4"/>
     </row>
@@ -11710,7 +11949,7 @@
       <c r="A187" s="3">
         <v>182</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C187" s="27" t="s">
@@ -11728,10 +11967,14 @@
       <c r="G187" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
+      <c r="H187" s="13">
+        <v>45050</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J187" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K187" s="4"/>
     </row>
@@ -11739,7 +11982,7 @@
       <c r="A188" s="3">
         <v>183</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="11" t="s">
         <v>339</v>
       </c>
       <c r="C188" s="27" t="s">
@@ -11757,10 +12000,10 @@
       <c r="G188" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H188" s="3"/>
+      <c r="H188" s="13"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="K188" s="4"/>
     </row>
@@ -11768,7 +12011,7 @@
       <c r="A189" s="3">
         <v>184</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="11" t="s">
         <v>340</v>
       </c>
       <c r="C189" s="27" t="s">
@@ -11786,10 +12029,14 @@
       <c r="G189" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
+      <c r="H189" s="13">
+        <v>45050</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J189" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K189" s="4"/>
     </row>
@@ -11797,7 +12044,7 @@
       <c r="A190" s="3">
         <v>185</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="11" t="s">
         <v>341</v>
       </c>
       <c r="C190" s="27" t="s">
@@ -11815,18 +12062,22 @@
       <c r="G190" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
+      <c r="H190" s="13">
+        <v>45050</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J190" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>186</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="11" t="s">
         <v>342</v>
       </c>
       <c r="C191" s="27" t="s">
@@ -11844,19 +12095,25 @@
       <c r="G191" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
+      <c r="H191" s="13">
+        <v>45050</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J191" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K191" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>187</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>343</v>
+      <c r="B192" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="C192" s="27" t="s">
         <v>147</v>
@@ -11873,15 +12130,442 @@
       <c r="G192" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
+      <c r="H192" s="13">
+        <v>45050</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J192" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192" s="4"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>188</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D193" s="27">
+        <v>1</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F193" s="13">
+        <v>45054</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H193" s="13">
+        <v>45054</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K193" s="4"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>189</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D194" s="27">
+        <v>1</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F194" s="13">
+        <v>45059</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H194" s="13">
+        <v>45059</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K194" s="4"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>190</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D195" s="27">
+        <v>1</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F195" s="13">
+        <v>45059</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H195" s="13">
+        <v>45059</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K195" s="4"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>191</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D196" s="27">
+        <v>1</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F196" s="13">
+        <v>45059</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H196" s="13">
+        <v>45059</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>192</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D197" s="27">
+        <v>1</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F197" s="13">
+        <v>45059</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H197" s="13">
+        <v>45061</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>193</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D198" s="27">
+        <v>1</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F198" s="13">
+        <v>45059</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K192" s="4"/>
+      <c r="K198" s="4"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>194</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D199" s="27">
+        <v>1</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F199" s="13">
+        <v>45061</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H199" s="13">
+        <v>45061</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K199" s="4"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>195</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D200" s="27">
+        <v>1</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F200" s="13">
+        <v>45061</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H200" s="13">
+        <v>45061</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K200" s="4"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>196</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D201" s="27">
+        <v>1</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F201" s="13">
+        <v>45061</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H201" s="13">
+        <v>45061</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>197</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D202" s="27">
+        <v>1</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F202" s="13">
+        <v>45061</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H202" s="13">
+        <v>45061</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K202" s="4"/>
+    </row>
+    <row r="203" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="46">
+        <v>198</v>
+      </c>
+      <c r="B203" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D203" s="48">
+        <v>1</v>
+      </c>
+      <c r="E203" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F203" s="49">
+        <v>45061</v>
+      </c>
+      <c r="G203" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H203" s="49">
+        <v>45061</v>
+      </c>
+      <c r="I203" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J203" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K203" s="50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="51">
+        <v>199</v>
+      </c>
+      <c r="B204" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="C204" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D204" s="53">
+        <v>1</v>
+      </c>
+      <c r="E204" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F204" s="55">
+        <v>45063</v>
+      </c>
+      <c r="G204" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H204" s="55"/>
+      <c r="I204" s="54"/>
+      <c r="J204" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K204" s="56"/>
+    </row>
+    <row r="205" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="46">
+        <v>200</v>
+      </c>
+      <c r="B205" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="C205" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D205" s="53">
+        <v>1</v>
+      </c>
+      <c r="E205" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F205" s="55">
+        <v>45063</v>
+      </c>
+      <c r="G205" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H205" s="55"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K205" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K181"/>
+  <autoFilter ref="A1:K192"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12099,7 +12783,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>325</v>
       </c>
       <c r="B1" t="s">
@@ -12107,15 +12791,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>273</v>
       </c>
       <c r="B4" t="s">
@@ -12129,80 +12813,80 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="30">
         <v>11</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="30">
         <v>81</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="30">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30">
         <v>67</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="30">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30">
         <v>10</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30">
         <v>9</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="34">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34">
-        <v>1</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="B9" s="30">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <v>168</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="30">
         <v>180</v>
       </c>
     </row>
@@ -12227,208 +12911,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="37">
-        <v>1</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33">
         <v>2</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="33">
         <v>3</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="33">
         <v>4</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="33">
         <v>5</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="33">
         <v>6</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="33">
         <v>7</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="33">
         <v>8</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>0.9</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="35">
         <v>0.05</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="35">
         <v>0.9</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="35">
         <v>0.1</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="35">
         <v>0.5</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="35">
         <v>0.95</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="35">
         <v>0.9</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="35">
         <v>0.9</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="37">
         <v>45047</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <v>45092</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>44927</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="41">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="37">
         <v>44927</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="37">
         <v>44927</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="37">
         <v>44927</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>45065</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="37">
         <v>45101</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>45065</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="37">
         <v>45071</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37">
         <v>45071</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="37">
         <v>45078</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="37">
         <v>45108</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="37">
         <v>45078</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
         <v>45122</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12586,4 +13270,150 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+      <c r="M4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" t="s">
+        <v>350</v>
+      </c>
+      <c r="M5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>352</v>
+      </c>
+      <c r="M6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Dispatch_relation" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$235</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="421">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -785,9 +785,6 @@
   </si>
   <si>
     <t>Column Labels</t>
-  </si>
-  <si>
-    <t>WH</t>
   </si>
   <si>
     <t>In Invoice add &amp; list page, change voucher number to BVM invoice number</t>
@@ -1294,6 +1291,15 @@
   </si>
   <si>
     <t>In Sales Reort, add fields for Target calls and revenue</t>
+  </si>
+  <si>
+    <t>Not possible</t>
+  </si>
+  <si>
+    <t>In Sales add edit form, input validation not happening</t>
+  </si>
+  <si>
+    <t>Raghu</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2066,462 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6574,13 +7035,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K235"/>
+  <dimension ref="A1:K236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B240" sqref="B240"/>
+      <selection pane="bottomRight" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6606,13 +7067,13 @@
         <v>158</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>91</v>
@@ -6668,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>147</v>
@@ -7036,7 +7497,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7263,7 +7724,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>147</v>
@@ -7354,7 +7815,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>147</v>
@@ -7682,7 +8143,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>147</v>
@@ -7841,7 +8302,7 @@
         <v>41</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8152,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50" s="10">
         <v>44935</v>
@@ -8183,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F51" s="10">
         <v>44935</v>
@@ -8205,7 +8666,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>147</v>
@@ -8214,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F52" s="10">
         <v>44935</v>
@@ -8245,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F53" s="10">
         <v>44935</v>
@@ -8274,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F54" s="10">
         <v>44935</v>
@@ -8303,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" s="10">
         <v>44935</v>
@@ -8323,7 +8784,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>147</v>
@@ -8332,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" s="10">
         <v>44935</v>
@@ -8385,7 +8846,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>147</v>
@@ -8394,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" s="10">
         <v>44935</v>
@@ -8431,10 +8892,14 @@
       <c r="G59" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="43" t="s">
-        <v>44</v>
+      <c r="H59" s="10">
+        <v>45053</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="K59" s="4"/>
     </row>
@@ -8443,7 +8908,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>147</v>
@@ -8452,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F60" s="10">
         <v>44935</v>
@@ -8476,7 +8941,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>147</v>
@@ -8528,10 +8993,14 @@
       <c r="G62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="43" t="s">
-        <v>44</v>
+      <c r="H62" s="10">
+        <v>45053</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="K62" s="4"/>
     </row>
@@ -8563,7 +9032,7 @@
         <v>75</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -8588,9 +9057,9 @@
       <c r="G64" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="43" t="s">
+      <c r="J64" s="46" t="s">
         <v>44</v>
       </c>
       <c r="K64" s="4"/>
@@ -8600,7 +9069,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>147</v>
@@ -8617,10 +9086,14 @@
       <c r="G65" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="43" t="s">
-        <v>44</v>
+      <c r="H65" s="10">
+        <v>45053</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="K65" s="4"/>
     </row>
@@ -8629,7 +9102,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>147</v>
@@ -8939,7 +9412,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>147</v>
@@ -8972,7 +9445,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>147</v>
@@ -8989,10 +9462,14 @@
       <c r="G77" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="43" t="s">
-        <v>44</v>
+      <c r="H77" s="10">
+        <v>45053</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="K77" s="4"/>
     </row>
@@ -9234,7 +9711,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>147</v>
@@ -9447,7 +9924,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>148</v>
@@ -9480,7 +9957,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>148</v>
@@ -9782,7 +10259,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>148</v>
@@ -9840,7 +10317,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C105" s="22" t="s">
         <v>148</v>
@@ -9898,7 +10375,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>148</v>
@@ -9927,7 +10404,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>148</v>
@@ -9956,7 +10433,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>148</v>
@@ -9985,7 +10462,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>148</v>
@@ -10014,7 +10491,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>148</v>
@@ -10043,7 +10520,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C112" s="22" t="s">
         <v>148</v>
@@ -10067,12 +10544,12 @@
       </c>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>148</v>
@@ -10101,7 +10578,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>148</v>
@@ -10130,7 +10607,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C115" s="22" t="s">
         <v>148</v>
@@ -10159,7 +10636,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C116" s="22" t="s">
         <v>148</v>
@@ -10341,7 +10818,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>147</v>
@@ -10374,7 +10851,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C123" s="22" t="s">
         <v>215</v>
@@ -10403,7 +10880,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C124" s="22" t="s">
         <v>236</v>
@@ -10434,7 +10911,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C125" s="22" t="s">
         <v>236</v>
@@ -10467,7 +10944,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C126" s="22" t="s">
         <v>236</v>
@@ -10529,7 +11006,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C128" s="22" t="s">
         <v>236</v>
@@ -10562,7 +11039,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C129" s="22" t="s">
         <v>236</v>
@@ -10791,7 +11268,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C136" s="22" t="s">
         <v>236</v>
@@ -10824,7 +11301,7 @@
         <v>138</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C137" s="22" t="s">
         <v>236</v>
@@ -10921,7 +11398,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C140" s="22" t="s">
         <v>236</v>
@@ -10954,7 +11431,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C141" s="22" t="s">
         <v>236</v>
@@ -10987,7 +11464,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C142" s="22" t="s">
         <v>236</v>
@@ -11478,7 +11955,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C157" s="22" t="s">
         <v>236</v>
@@ -11577,10 +12054,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="D160" s="21">
         <v>1</v>
@@ -11610,10 +12087,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="D161" s="21">
         <v>1</v>
@@ -11643,10 +12120,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="D162" s="21">
         <v>1</v>
@@ -11676,7 +12153,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C163" s="22" t="s">
         <v>236</v>
@@ -11709,7 +12186,7 @@
         <v>165</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C164" s="22" t="s">
         <v>236</v>
@@ -11742,10 +12219,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D165" s="21">
         <v>1</v>
@@ -11775,10 +12252,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D166" s="21">
         <v>1</v>
@@ -11808,7 +12285,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C167" s="22" t="s">
         <v>236</v>
@@ -11817,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F167" s="10">
         <v>45031</v>
@@ -11841,7 +12318,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C168" s="22" t="s">
         <v>236</v>
@@ -11850,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F168" s="10">
         <v>45031</v>
@@ -11870,7 +12347,7 @@
         <v>170</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C169" s="22" t="s">
         <v>236</v>
@@ -11879,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F169" s="10">
         <v>45031</v>
@@ -11903,7 +12380,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C170" s="22" t="s">
         <v>236</v>
@@ -11912,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F170" s="10">
         <v>45031</v>
@@ -11936,7 +12413,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C171" s="22" t="s">
         <v>236</v>
@@ -11945,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F171" s="10">
         <v>45031</v>
@@ -11969,7 +12446,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C172" s="22" t="s">
         <v>236</v>
@@ -11978,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F172" s="10">
         <v>45031</v>
@@ -11992,7 +12469,7 @@
         <v>75</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -12000,7 +12477,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C173" s="22" t="s">
         <v>236</v>
@@ -12009,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F173" s="10">
         <v>45031</v>
@@ -12029,7 +12506,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C174" s="22" t="s">
         <v>236</v>
@@ -12038,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F174" s="10">
         <v>45031</v>
@@ -12062,7 +12539,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C175" s="22" t="s">
         <v>236</v>
@@ -12071,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F175" s="10">
         <v>45031</v>
@@ -12095,7 +12572,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C176" s="22" t="s">
         <v>236</v>
@@ -12104,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F176" s="10">
         <v>45031</v>
@@ -12128,7 +12605,7 @@
         <v>172</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C177" s="22" t="s">
         <v>152</v>
@@ -12137,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F177" s="10">
         <v>45031</v>
@@ -12157,7 +12634,7 @@
         <v>173</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C178" s="22" t="s">
         <v>152</v>
@@ -12166,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F178" s="10">
         <v>45031</v>
@@ -12186,16 +12663,16 @@
         <v>174</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D179" s="21">
         <v>1</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F179" s="10">
         <v>45031</v>
@@ -12219,7 +12696,7 @@
         <v>175</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C180" s="22" t="s">
         <v>147</v>
@@ -12228,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F180" s="10">
         <v>45031</v>
@@ -12248,7 +12725,7 @@
         <v>176</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C181" s="22" t="s">
         <v>215</v>
@@ -12257,7 +12734,7 @@
         <v>2</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F181" s="10">
         <v>45031</v>
@@ -12277,7 +12754,7 @@
         <v>177</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C182" s="22" t="s">
         <v>147</v>
@@ -12294,10 +12771,14 @@
       <c r="G182" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
+      <c r="H182" s="10">
+        <v>45072</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J182" s="46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K182" s="4"/>
     </row>
@@ -12306,7 +12787,7 @@
         <v>178</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C183" s="22" t="s">
         <v>147</v>
@@ -12339,7 +12820,7 @@
         <v>179</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C184" s="22" t="s">
         <v>147</v>
@@ -12372,7 +12853,7 @@
         <v>180</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C185" s="22" t="s">
         <v>147</v>
@@ -12405,7 +12886,7 @@
         <v>181</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C186" s="22" t="s">
         <v>147</v>
@@ -12438,7 +12919,7 @@
         <v>182</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C187" s="22" t="s">
         <v>147</v>
@@ -12471,7 +12952,7 @@
         <v>183</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C188" s="22" t="s">
         <v>147</v>
@@ -12488,10 +12969,14 @@
       <c r="G188" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H188" s="10"/>
-      <c r="I188" s="3"/>
+      <c r="H188" s="10">
+        <v>45072</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J188" s="46" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="K188" s="4"/>
     </row>
@@ -12500,7 +12985,7 @@
         <v>184</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C189" s="22" t="s">
         <v>147</v>
@@ -12533,7 +13018,7 @@
         <v>185</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C190" s="22" t="s">
         <v>147</v>
@@ -12566,7 +13051,7 @@
         <v>186</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C191" s="22" t="s">
         <v>147</v>
@@ -12593,7 +13078,7 @@
         <v>75</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -12601,7 +13086,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C192" s="22" t="s">
         <v>147</v>
@@ -12634,7 +13119,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C193" s="22" t="s">
         <v>147</v>
@@ -12667,7 +13152,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C194" s="22" t="s">
         <v>147</v>
@@ -12700,7 +13185,7 @@
         <v>190</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C195" s="22" t="s">
         <v>147</v>
@@ -12733,7 +13218,7 @@
         <v>191</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C196" s="22" t="s">
         <v>147</v>
@@ -12766,7 +13251,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C197" s="22" t="s">
         <v>147</v>
@@ -12793,7 +13278,7 @@
         <v>75</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -12801,7 +13286,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C198" s="22" t="s">
         <v>147</v>
@@ -12834,7 +13319,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C199" s="22" t="s">
         <v>147</v>
@@ -12867,7 +13352,7 @@
         <v>195</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C200" s="22" t="s">
         <v>147</v>
@@ -12895,12 +13380,12 @@
       </c>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>196</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C201" s="22" t="s">
         <v>147</v>
@@ -12927,7 +13412,7 @@
         <v>41</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -12935,7 +13420,7 @@
         <v>197</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C202" s="22" t="s">
         <v>147</v>
@@ -12968,7 +13453,7 @@
         <v>198</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C203" s="22" t="s">
         <v>147</v>
@@ -12995,7 +13480,7 @@
         <v>41</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -13003,7 +13488,7 @@
         <v>199</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C204" s="22" t="s">
         <v>147</v>
@@ -13036,7 +13521,7 @@
         <v>200</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C205" s="22" t="s">
         <v>147</v>
@@ -13069,7 +13554,7 @@
         <v>201</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C206" s="22" t="s">
         <v>148</v>
@@ -13078,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F206" s="10">
         <v>45066</v>
@@ -13098,7 +13583,7 @@
         <v>202</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C207" s="22" t="s">
         <v>148</v>
@@ -13107,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F207" s="10">
         <v>45066</v>
@@ -13127,7 +13612,7 @@
         <v>203</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C208" s="22" t="s">
         <v>148</v>
@@ -13136,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F208" s="10">
         <v>45066</v>
@@ -13156,7 +13641,7 @@
         <v>204</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C209" s="22" t="s">
         <v>148</v>
@@ -13165,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F209" s="10">
         <v>45066</v>
@@ -13185,7 +13670,7 @@
         <v>205</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C210" s="22" t="s">
         <v>148</v>
@@ -13194,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F210" s="10">
         <v>45066</v>
@@ -13214,7 +13699,7 @@
         <v>206</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C211" s="22" t="s">
         <v>148</v>
@@ -13223,7 +13708,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F211" s="10">
         <v>45066</v>
@@ -13243,7 +13728,7 @@
         <v>207</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C212" s="22" t="s">
         <v>148</v>
@@ -13252,7 +13737,7 @@
         <v>1</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F212" s="10">
         <v>45066</v>
@@ -13272,7 +13757,7 @@
         <v>208</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C213" s="22" t="s">
         <v>148</v>
@@ -13281,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F213" s="10">
         <v>45066</v>
@@ -13301,7 +13786,7 @@
         <v>209</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C214" s="22" t="s">
         <v>148</v>
@@ -13310,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F214" s="10">
         <v>45066</v>
@@ -13330,7 +13815,7 @@
         <v>210</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C215" s="22" t="s">
         <v>148</v>
@@ -13339,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F215" s="10">
         <v>45066</v>
@@ -13359,7 +13844,7 @@
         <v>211</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C216" s="22" t="s">
         <v>148</v>
@@ -13368,7 +13853,7 @@
         <v>2</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F216" s="10">
         <v>45066</v>
@@ -13388,7 +13873,7 @@
         <v>212</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C217" s="22" t="s">
         <v>148</v>
@@ -13397,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F217" s="10">
         <v>45066</v>
@@ -13417,7 +13902,7 @@
         <v>213</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C218" s="22" t="s">
         <v>148</v>
@@ -13426,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F218" s="10">
         <v>45066</v>
@@ -13446,7 +13931,7 @@
         <v>214</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C219" s="22" t="s">
         <v>148</v>
@@ -13455,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F219" s="10">
         <v>45066</v>
@@ -13475,7 +13960,7 @@
         <v>215</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C220" s="22" t="s">
         <v>148</v>
@@ -13484,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F220" s="10">
         <v>45066</v>
@@ -13504,7 +13989,7 @@
         <v>216</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C221" s="22" t="s">
         <v>148</v>
@@ -13513,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F221" s="10">
         <v>45066</v>
@@ -13533,7 +14018,7 @@
         <v>217</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C222" s="22" t="s">
         <v>148</v>
@@ -13542,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F222" s="10">
         <v>45066</v>
@@ -13562,7 +14047,7 @@
         <v>218</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C223" s="22" t="s">
         <v>148</v>
@@ -13571,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F223" s="10">
         <v>45066</v>
@@ -13591,7 +14076,7 @@
         <v>219</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C224" s="22" t="s">
         <v>148</v>
@@ -13600,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F224" s="10">
         <v>45066</v>
@@ -13620,7 +14105,7 @@
         <v>220</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>148</v>
@@ -13629,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F225" s="10">
         <v>45066</v>
@@ -13649,7 +14134,7 @@
         <v>221</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C226" s="22" t="s">
         <v>148</v>
@@ -13658,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F226" s="10">
         <v>45066</v>
@@ -13678,7 +14163,7 @@
         <v>222</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>148</v>
@@ -13687,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F227" s="10">
         <v>45066</v>
@@ -13707,7 +14192,7 @@
         <v>223</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C228" s="22" t="s">
         <v>148</v>
@@ -13716,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F228" s="10">
         <v>45066</v>
@@ -13736,7 +14221,7 @@
         <v>224</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C229" s="22" t="s">
         <v>148</v>
@@ -13745,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F229" s="10">
         <v>45066</v>
@@ -13765,7 +14250,7 @@
         <v>225</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C230" s="22" t="s">
         <v>147</v>
@@ -13782,10 +14267,14 @@
       <c r="G230" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
+      <c r="H230" s="10">
+        <v>45072</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J230" s="46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K230" s="4"/>
     </row>
@@ -13794,7 +14283,7 @@
         <v>226</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C231" s="22" t="s">
         <v>147</v>
@@ -13823,7 +14312,7 @@
         <v>227</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>147</v>
@@ -13852,7 +14341,7 @@
         <v>228</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C233" s="22" t="s">
         <v>147</v>
@@ -13869,19 +14358,25 @@
       <c r="G233" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
+      <c r="H233" s="10">
+        <v>45072</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J233" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K233" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>229</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C234" s="22" t="s">
         <v>147</v>
@@ -13910,7 +14405,7 @@
         <v>230</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C235" s="22" t="s">
         <v>236</v>
@@ -13927,22 +14422,59 @@
       <c r="G235" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
+      <c r="H235" s="10">
+        <v>45069</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J235" s="46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K235" s="4"/>
     </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <v>231</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D236" s="22">
+        <v>1</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F236" s="10">
+        <v>45072</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H236" s="10">
+        <v>45072</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J236" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K236" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K192"/>
+  <autoFilter ref="A1:K235"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{604F6007-5405-4EA5-82BE-9F20A4D18F3E}">
+          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{604F6007-5405-4EA5-82BE-9F20A4D18F3E}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J1)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -13953,7 +14485,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{3B9BBA67-25ED-4757-861A-95700E3073FB}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{3B9BBA67-25ED-4757-861A-95700E3073FB}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J1)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -13964,7 +14496,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4AFEB009-1E4D-4C12-A850-EC36CA7C9ABE}">
+          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{4AFEB009-1E4D-4C12-A850-EC36CA7C9ABE}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J1)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -13975,7 +14507,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{07D5AE2A-829D-46C3-8A6C-DE32DA685FDF}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{07D5AE2A-829D-46C3-8A6C-DE32DA685FDF}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J1)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -13986,7 +14518,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{94A18ACF-4A4D-47C7-9BC7-0ED0771C7C1C}">
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{94A18ACF-4A4D-47C7-9BC7-0ED0771C7C1C}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J1)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -13997,7 +14529,413 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>J1:J58 J183:J229 J60:J61 J63 J66:J76 J78:J181 J231:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J182)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{2659F180-45C4-4EEE-A3F0-1022689BB1E9}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J182)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{DDDE62F9-7798-47BF-A4BA-D6C32EDFA488}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J182)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{BF09192F-5432-4607-9692-1F7F86FBB0AD}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J182)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{545D3F34-0DB8-4592-83E9-8456F5CBFCD4}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J182)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J182</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{77D5091E-7FC1-44EB-A2E0-A2C9BFE89B0A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J230)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{99C6401E-4A5E-4390-87DF-F2D74820E080}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J230)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{BB681EE2-6955-4730-8D34-88C55623D70B}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J230)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{133521A3-AB59-4A23-8F21-29B654806183}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J230)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{9FE4BF21-895B-470B-A846-97AC86996AFC}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J230)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J230</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{56682B13-B008-4E65-AEDD-5C775178D6B6}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J59)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{5792A322-E44B-4F1E-9B56-5F09EB3D749E}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J59)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{04CB1850-99E9-4D72-AD9B-A0E7132E68A7}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J59)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{6B86DADF-E089-4949-B9DC-C2709822F79C}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J59)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{50B16563-F823-4DA9-BC45-5982EA08CE8A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J59)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{5E97BD53-8796-4FD1-94BE-57B4FCB0997A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J62)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{A55CA617-CC1A-4D9E-90EF-E4E681D55EE4}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J62)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{9EF76090-9CE4-48C9-9DB9-FFFBE637F20A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J62)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{2A7C95FD-5A49-4CAD-940D-2F7A489149EC}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J62)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{B69BB39A-2C4A-4FA4-9F68-88673B44B228}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J62)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{1F2CD909-1699-4AB0-8FC5-F860F0A0CE21}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J64)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{6485C17D-0D36-49D9-824C-5EED64C68F9B}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J64)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{95FBE05E-23A8-4EE9-88C3-AB695CBC7932}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J64)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{493B3732-9742-4C46-8E12-796966F4B6C3}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J64)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{7DE27319-DCEF-4157-9370-E253A751D383}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J64)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{0C3206E5-C963-4F31-8384-8B911C42FB8A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J65)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{B50CA9A6-1591-43DD-BB06-4268802FEC6F}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J65)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{BCA1BE13-582D-428B-B3AD-90FD42542E9C}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J65)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{0AF4353A-EC7F-4094-8E37-6176E6B0D179}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J65)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{FE021F5E-88CF-4884-AE41-4B1DCE49B1DD}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J65)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{72685E7F-5EE0-454C-B3EF-E261AD457F4C}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J77)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{B131B030-F95A-4FAD-8F6D-545DCBAE0A83}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J77)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{355C84F0-1C4D-471D-AFF3-810D786A3F1F}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J77)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{81554C70-17D8-4253-A252-DF35CC302ECD}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J77)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{D533391D-755B-4529-834E-380D2E25F04F}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J77)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J77</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14224,10 +15162,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
         <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -14381,7 +15319,7 @@
         <v>154</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>42</v>
@@ -14389,7 +15327,7 @@
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="28">
         <v>1</v>
@@ -14420,7 +15358,7 @@
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="30">
         <v>0.9</v>
@@ -14451,7 +15389,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="32">
         <v>45047</v>
@@ -14478,7 +15416,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="32">
         <v>45065</v>
@@ -14499,7 +15437,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="32">
         <v>45071</v>
@@ -14518,7 +15456,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" s="32">
         <v>45078</v>
@@ -14535,13 +15473,13 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -14726,133 +15664,133 @@
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" t="s">
         <v>315</v>
       </c>
-      <c r="D4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
         <v>316</v>
-      </c>
-      <c r="M4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" t="s">
         <v>318</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>319</v>
-      </c>
-      <c r="M5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
+        <v>320</v>
+      </c>
+      <c r="M6" t="s">
         <v>321</v>
-      </c>
-      <c r="M6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M7" t="s">
         <v>323</v>
-      </c>
-      <c r="M7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
         <v>326</v>
-      </c>
-      <c r="G9" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" t="s">
         <v>332</v>
-      </c>
-      <c r="G14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
+        <v>336</v>
+      </c>
+      <c r="G18" t="s">
         <v>337</v>
-      </c>
-      <c r="G18" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="Project_Progress" sheetId="3" r:id="rId4"/>
     <sheet name="Sales" sheetId="4" r:id="rId5"/>
     <sheet name="Dispatch_relation" sheetId="6" r:id="rId6"/>
+    <sheet name="Transport_Business_model" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$240</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="446">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1300,6 +1301,82 @@
   </si>
   <si>
     <t>Raghu</t>
+  </si>
+  <si>
+    <t>In Trip details add form inlcude weighment cost.</t>
+  </si>
+  <si>
+    <t>BusinessType</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Case To Case</t>
+  </si>
+  <si>
+    <t>20Ft</t>
+  </si>
+  <si>
+    <t>From Location</t>
+  </si>
+  <si>
+    <t>To Location</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rate (INR)</t>
+  </si>
+  <si>
+    <t>Min Distance (km)</t>
+  </si>
+  <si>
+    <t>Max Distance (km)</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>Rate per km</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>In Asset add form, add asset ID field</t>
+  </si>
+  <si>
+    <t>In asset add form,Unit should be listed based on location</t>
+  </si>
+  <si>
+    <t>In Asset QR code, add 'Product' to the List</t>
+  </si>
+  <si>
+    <t>Covered under loading bay section</t>
+  </si>
+  <si>
+    <t>23-Jun-23 (Jose)
+Reports developed in PowerBi. Under BVM review (Sony)</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1971,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2021,6 +2098,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2066,287 +2152,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -2711,7 +2517,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2748,9 +2553,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2826,7 +2629,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2863,9 +2665,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2939,7 +2739,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3063,7 +2862,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3140,11 +2938,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="332472960"/>
-        <c:axId val="332474048"/>
+        <c:axId val="1958265200"/>
+        <c:axId val="1958252688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332472960"/>
+        <c:axId val="1958265200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,7 +2985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332474048"/>
+        <c:crossAx val="1958252688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3195,7 +2993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332474048"/>
+        <c:axId val="1958252688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,7 +3044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332472960"/>
+        <c:crossAx val="1958265200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3260,7 +3058,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6650,7 +6447,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -7035,13 +6832,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K236"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C219" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B237" sqref="B237"/>
+      <selection pane="bottomRight" activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7091,7 +6889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -7124,7 +6922,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -7155,7 +6953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -7188,7 +6986,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -7219,7 +7017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -7252,7 +7050,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7283,7 +7081,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7316,7 +7114,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7436,7 +7234,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7469,7 +7267,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -7529,7 +7327,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -7591,7 +7389,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -7624,7 +7422,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -7657,7 +7455,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -7777,7 +7575,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7810,7 +7608,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7841,7 +7639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7874,7 +7672,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -7907,7 +7705,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -7938,7 +7736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -7971,7 +7769,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8004,7 +7802,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8037,7 +7835,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -8072,7 +7870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -8105,7 +7903,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -8138,7 +7936,7 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -8171,7 +7969,7 @@
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -8204,7 +8002,7 @@
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -8237,7 +8035,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -8270,7 +8068,7 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -8305,7 +8103,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -8336,7 +8134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -8454,7 +8252,7 @@
       </c>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -8483,7 +8281,7 @@
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -8512,7 +8310,7 @@
       </c>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -8541,7 +8339,7 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -8570,7 +8368,7 @@
       </c>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -8599,7 +8397,7 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -8630,7 +8428,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -8661,7 +8459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -8692,7 +8490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -8721,7 +8519,7 @@
       </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -8750,7 +8548,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -8779,7 +8577,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -8808,7 +8606,7 @@
       </c>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -8841,7 +8639,7 @@
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -8870,7 +8668,7 @@
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -8903,7 +8701,7 @@
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -8936,7 +8734,7 @@
       </c>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -8971,7 +8769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -9004,7 +8802,7 @@
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -9035,7 +8833,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -9064,7 +8862,7 @@
       </c>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -9097,7 +8895,7 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -9126,7 +8924,7 @@
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -9159,7 +8957,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -9192,7 +8990,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -9223,7 +9021,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -9252,7 +9050,7 @@
       </c>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -9281,7 +9079,7 @@
       </c>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -9310,7 +9108,7 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -9341,7 +9139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -9374,7 +9172,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -9407,7 +9205,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -9440,7 +9238,7 @@
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -9473,7 +9271,7 @@
       </c>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -9506,7 +9304,7 @@
       </c>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -9539,7 +9337,7 @@
       </c>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -9572,7 +9370,7 @@
       </c>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -9605,7 +9403,7 @@
       </c>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -9619,7 +9417,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="F82" s="10">
         <v>44960</v>
@@ -9636,7 +9434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -9671,7 +9469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -9706,7 +9504,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -9720,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="F85" s="10">
         <v>44960</v>
@@ -9737,7 +9535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -9751,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="F86" s="10">
         <v>44960</v>
@@ -9768,7 +9566,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -9782,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="F87" s="10">
         <v>44960</v>
@@ -9799,7 +9597,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -9813,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="F88" s="10">
         <v>44960</v>
@@ -9828,7 +9626,7 @@
       </c>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -9861,7 +9659,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -9890,7 +9688,7 @@
       </c>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -9919,7 +9717,7 @@
       </c>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -9952,7 +9750,7 @@
       </c>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -9985,7 +9783,7 @@
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -10014,7 +9812,7 @@
       </c>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -10043,7 +9841,7 @@
       </c>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -10072,7 +9870,7 @@
       </c>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -10101,7 +9899,7 @@
       </c>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -10130,7 +9928,7 @@
       </c>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -10163,7 +9961,7 @@
       </c>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -10192,7 +9990,7 @@
       </c>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -10225,7 +10023,7 @@
       </c>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -10254,7 +10052,7 @@
       </c>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -10283,7 +10081,7 @@
       </c>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -10312,7 +10110,7 @@
       </c>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -10341,7 +10139,7 @@
       </c>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -10370,7 +10168,7 @@
       </c>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -10399,7 +10197,7 @@
       </c>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -10428,7 +10226,7 @@
       </c>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -10457,7 +10255,7 @@
       </c>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -10486,7 +10284,7 @@
       </c>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -10515,7 +10313,7 @@
       </c>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -10544,7 +10342,7 @@
       </c>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -10573,7 +10371,7 @@
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -10602,7 +10400,7 @@
       </c>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -10631,7 +10429,7 @@
       </c>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -10660,7 +10458,7 @@
       </c>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -10689,7 +10487,7 @@
       </c>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -10718,7 +10516,7 @@
       </c>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -10747,7 +10545,7 @@
       </c>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -10780,7 +10578,7 @@
       </c>
       <c r="K120" s="4"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -10813,7 +10611,7 @@
       </c>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -10846,7 +10644,7 @@
       </c>
       <c r="K122" s="4"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -10875,7 +10673,7 @@
       </c>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -10906,7 +10704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -10939,7 +10737,7 @@
       </c>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -10968,7 +10766,7 @@
       </c>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>128</v>
       </c>
@@ -11001,7 +10799,7 @@
       </c>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>129</v>
       </c>
@@ -11034,7 +10832,7 @@
       </c>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>130</v>
       </c>
@@ -11067,7 +10865,7 @@
       </c>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>131</v>
       </c>
@@ -11100,7 +10898,7 @@
       </c>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>132</v>
       </c>
@@ -11133,7 +10931,7 @@
       </c>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>133</v>
       </c>
@@ -11168,7 +10966,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>134</v>
       </c>
@@ -11199,7 +10997,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>135</v>
       </c>
@@ -11230,7 +11028,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>136</v>
       </c>
@@ -11263,7 +11061,7 @@
       </c>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>137</v>
       </c>
@@ -11296,7 +11094,7 @@
       </c>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>138</v>
       </c>
@@ -11329,7 +11127,7 @@
       </c>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>139</v>
       </c>
@@ -11362,7 +11160,7 @@
       </c>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>140</v>
       </c>
@@ -11393,7 +11191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>141</v>
       </c>
@@ -11426,7 +11224,7 @@
       </c>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>142</v>
       </c>
@@ -11459,7 +11257,7 @@
       </c>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>143</v>
       </c>
@@ -11494,7 +11292,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>144</v>
       </c>
@@ -11529,7 +11327,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>145</v>
       </c>
@@ -11558,7 +11356,7 @@
       </c>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>146</v>
       </c>
@@ -11591,7 +11389,7 @@
       </c>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>147</v>
       </c>
@@ -11622,7 +11420,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>148</v>
       </c>
@@ -11655,7 +11453,7 @@
       </c>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>149</v>
       </c>
@@ -11688,7 +11486,7 @@
       </c>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>150</v>
       </c>
@@ -11721,7 +11519,7 @@
       </c>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>151</v>
       </c>
@@ -11754,7 +11552,7 @@
       </c>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>152</v>
       </c>
@@ -11787,7 +11585,7 @@
       </c>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>153</v>
       </c>
@@ -11820,7 +11618,7 @@
       </c>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>154</v>
       </c>
@@ -11853,7 +11651,7 @@
       </c>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>155</v>
       </c>
@@ -11886,7 +11684,7 @@
       </c>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>156</v>
       </c>
@@ -11919,7 +11717,7 @@
       </c>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>157</v>
       </c>
@@ -11950,7 +11748,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>158</v>
       </c>
@@ -11983,7 +11781,7 @@
       </c>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>159</v>
       </c>
@@ -12016,7 +11814,7 @@
       </c>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>160</v>
       </c>
@@ -12049,7 +11847,7 @@
       </c>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>161</v>
       </c>
@@ -12082,7 +11880,7 @@
       </c>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>162</v>
       </c>
@@ -12115,7 +11913,7 @@
       </c>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>163</v>
       </c>
@@ -12148,7 +11946,7 @@
       </c>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>164</v>
       </c>
@@ -12181,7 +11979,7 @@
       </c>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>165</v>
       </c>
@@ -12214,7 +12012,7 @@
       </c>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>166</v>
       </c>
@@ -12247,7 +12045,7 @@
       </c>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>167</v>
       </c>
@@ -12280,7 +12078,7 @@
       </c>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>168</v>
       </c>
@@ -12313,7 +12111,7 @@
       </c>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>169</v>
       </c>
@@ -12340,9 +12138,11 @@
       <c r="J168" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="K168" s="4"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K168" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>170</v>
       </c>
@@ -12375,7 +12175,7 @@
       </c>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>171</v>
       </c>
@@ -12408,7 +12208,7 @@
       </c>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>172</v>
       </c>
@@ -12441,7 +12241,7 @@
       </c>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>173</v>
       </c>
@@ -12472,7 +12272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>174</v>
       </c>
@@ -12501,7 +12301,7 @@
       </c>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>175</v>
       </c>
@@ -12534,7 +12334,7 @@
       </c>
       <c r="K174" s="4"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>175</v>
       </c>
@@ -12567,7 +12367,7 @@
       </c>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -12600,7 +12400,7 @@
       </c>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>172</v>
       </c>
@@ -12629,7 +12429,7 @@
       </c>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>173</v>
       </c>
@@ -12658,7 +12458,7 @@
       </c>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>174</v>
       </c>
@@ -12691,7 +12491,7 @@
       </c>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>175</v>
       </c>
@@ -12720,7 +12520,7 @@
       </c>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>176</v>
       </c>
@@ -12749,7 +12549,7 @@
       </c>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>177</v>
       </c>
@@ -12782,7 +12582,7 @@
       </c>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>178</v>
       </c>
@@ -12815,7 +12615,7 @@
       </c>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>179</v>
       </c>
@@ -12848,7 +12648,7 @@
       </c>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>180</v>
       </c>
@@ -12881,7 +12681,7 @@
       </c>
       <c r="K185" s="4"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>181</v>
       </c>
@@ -12914,7 +12714,7 @@
       </c>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>182</v>
       </c>
@@ -12947,7 +12747,7 @@
       </c>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>183</v>
       </c>
@@ -12980,7 +12780,7 @@
       </c>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>184</v>
       </c>
@@ -13013,7 +12813,7 @@
       </c>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>185</v>
       </c>
@@ -13046,7 +12846,7 @@
       </c>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>186</v>
       </c>
@@ -13081,7 +12881,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>187</v>
       </c>
@@ -13114,7 +12914,7 @@
       </c>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>188</v>
       </c>
@@ -13147,7 +12947,7 @@
       </c>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>189</v>
       </c>
@@ -13180,7 +12980,7 @@
       </c>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>190</v>
       </c>
@@ -13213,7 +13013,7 @@
       </c>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>191</v>
       </c>
@@ -13246,7 +13046,7 @@
       </c>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>192</v>
       </c>
@@ -13281,7 +13081,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>193</v>
       </c>
@@ -13314,7 +13114,7 @@
       </c>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>194</v>
       </c>
@@ -13347,7 +13147,7 @@
       </c>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>195</v>
       </c>
@@ -13380,7 +13180,7 @@
       </c>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>196</v>
       </c>
@@ -13415,7 +13215,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>197</v>
       </c>
@@ -13448,7 +13248,7 @@
       </c>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>198</v>
       </c>
@@ -13483,7 +13283,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>199</v>
       </c>
@@ -13516,7 +13316,7 @@
       </c>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>200</v>
       </c>
@@ -13549,7 +13349,7 @@
       </c>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>201</v>
       </c>
@@ -13578,7 +13378,7 @@
       </c>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>202</v>
       </c>
@@ -13607,7 +13407,7 @@
       </c>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>203</v>
       </c>
@@ -13636,7 +13436,7 @@
       </c>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>204</v>
       </c>
@@ -13665,7 +13465,7 @@
       </c>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>205</v>
       </c>
@@ -13694,7 +13494,7 @@
       </c>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>206</v>
       </c>
@@ -13723,7 +13523,7 @@
       </c>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>207</v>
       </c>
@@ -13752,7 +13552,7 @@
       </c>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>208</v>
       </c>
@@ -13781,7 +13581,7 @@
       </c>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>209</v>
       </c>
@@ -13810,7 +13610,7 @@
       </c>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>210</v>
       </c>
@@ -13839,7 +13639,7 @@
       </c>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>211</v>
       </c>
@@ -13868,7 +13668,7 @@
       </c>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>212</v>
       </c>
@@ -13897,7 +13697,7 @@
       </c>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>213</v>
       </c>
@@ -13926,7 +13726,7 @@
       </c>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>214</v>
       </c>
@@ -13955,7 +13755,7 @@
       </c>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>215</v>
       </c>
@@ -13984,7 +13784,7 @@
       </c>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>216</v>
       </c>
@@ -14013,7 +13813,7 @@
       </c>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>217</v>
       </c>
@@ -14042,7 +13842,7 @@
       </c>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>218</v>
       </c>
@@ -14071,7 +13871,7 @@
       </c>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>219</v>
       </c>
@@ -14100,7 +13900,7 @@
       </c>
       <c r="K224" s="4"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>220</v>
       </c>
@@ -14129,7 +13929,7 @@
       </c>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>221</v>
       </c>
@@ -14158,7 +13958,7 @@
       </c>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>222</v>
       </c>
@@ -14187,7 +13987,7 @@
       </c>
       <c r="K227" s="4"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>223</v>
       </c>
@@ -14216,7 +14016,7 @@
       </c>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>224</v>
       </c>
@@ -14245,7 +14045,7 @@
       </c>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>225</v>
       </c>
@@ -14278,7 +14078,7 @@
       </c>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>226</v>
       </c>
@@ -14307,7 +14107,7 @@
       </c>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>227</v>
       </c>
@@ -14336,7 +14136,7 @@
       </c>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>228</v>
       </c>
@@ -14371,7 +14171,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>229</v>
       </c>
@@ -14396,11 +14196,13 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K234" s="4"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>230</v>
       </c>
@@ -14433,7 +14235,7 @@
       </c>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>231</v>
       </c>
@@ -14466,8 +14268,152 @@
       </c>
       <c r="K236" s="4"/>
     </row>
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
+        <v>232</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C237" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D237" s="22">
+        <v>1</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F237" s="10">
+        <v>45105</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K237" s="4"/>
+    </row>
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <v>233</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D238" s="22">
+        <v>1</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F238" s="10">
+        <v>45107</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H238" s="10">
+        <v>45107</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J238" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K238" s="4"/>
+    </row>
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <v>234</v>
+      </c>
+      <c r="B239" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D239" s="22">
+        <v>1</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F239" s="10">
+        <v>45107</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H239" s="10">
+        <v>45107</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J239" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <v>235</v>
+      </c>
+      <c r="B240" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D240" s="22">
+        <v>1</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F240" s="10">
+        <v>45107</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H240" s="10">
+        <v>45107</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J240" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K235"/>
+  <autoFilter ref="A1:K240">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="WMS"/>
+        <filter val="WMS,TMS,PMS"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="BVM Team"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="WIP"/>
+        <filter val="YTS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -15280,8 +15226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15360,29 +15306,29 @@
       <c r="A3" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="C3" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="30">
+      <c r="B3" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="C3" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="E3" s="50">
         <v>0.1</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="49">
         <v>0.5</v>
       </c>
-      <c r="G3" s="30">
-        <v>0.95</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0.9</v>
+      <c r="G3" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="I3" s="48">
+        <v>0.98</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
@@ -15657,7 +15603,7 @@
   <dimension ref="C3:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M21"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15796,4 +15742,295 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2250</v>
+      </c>
+      <c r="H8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>439</v>
+      </c>
+      <c r="M8">
+        <v>100000</v>
+      </c>
+      <c r="N8">
+        <v>100000</v>
+      </c>
+      <c r="O8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F9">
+        <v>2551</v>
+      </c>
+      <c r="G9" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>439</v>
+      </c>
+      <c r="M9">
+        <v>2500</v>
+      </c>
+      <c r="N9">
+        <v>1800</v>
+      </c>
+      <c r="O9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2250</v>
+      </c>
+      <c r="H10" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>439</v>
+      </c>
+      <c r="M10">
+        <f>M8/M9</f>
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <f>N8/N9</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="O10">
+        <f>O8/O9</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F11">
+        <v>2551</v>
+      </c>
+      <c r="G11" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8676" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,17 @@
     <sheet name="Transport_Business_model" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$265</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="113" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="491">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1458,6 +1458,60 @@
   </si>
   <si>
     <t>In asset add form, Unit list incorect for selcted branches</t>
+  </si>
+  <si>
+    <t>In Sales, make Business Not Won as mandatory field.</t>
+  </si>
+  <si>
+    <t>Sales-PBI</t>
+  </si>
+  <si>
+    <t>In AR, make provision to add payment followup comments (Date, Customer contact name, Designation, BVM login name and remarks)</t>
+  </si>
+  <si>
+    <t>In Sales PowerBi reports, add slicer for sales executive wise</t>
+  </si>
+  <si>
+    <t>In Stock report, show cost denominations in Lakhs &amp; Crores</t>
+  </si>
+  <si>
+    <t>AR-PBI</t>
+  </si>
+  <si>
+    <t>Stock Report-PBI</t>
+  </si>
+  <si>
+    <t>In Stock report, generate alert when total In-Bound stock value crosses 20Cr, alert Sony</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>In AR, add slicer to aging time (16-30, 46-60...)</t>
+  </si>
+  <si>
+    <t>In AR, add ageing 91-120,121-150, 151-180,181&gt;above</t>
+  </si>
+  <si>
+    <t>In AR, show Amount Received chart separately</t>
+  </si>
+  <si>
+    <t>In AR, show slicer for received Date in Amount Received chart</t>
+  </si>
+  <si>
+    <t>In Ar, include sales person Name ( Amount Received chart)</t>
+  </si>
+  <si>
+    <t>In AR PowerBi report, add slicer for customer name ( Amount Received chart)</t>
+  </si>
+  <si>
+    <t>In Ar, include sales person Name (Amount Yet to  Received chart)</t>
+  </si>
+  <si>
+    <t>In AR PowerBi report, add slicer for customer name  (Amount Yet to  Received chart)</t>
+  </si>
+  <si>
+    <t>In sales add &amp; list form, include sales person name</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2296,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="86">
     <dxf>
       <fill>
         <patternFill>
@@ -2769,7 +2823,77 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2820,7 +2944,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2857,9 +2980,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2935,7 +3056,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2972,11 +3092,24 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3048,7 +3181,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3172,7 +3304,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3260,64 +3391,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Progress!$A$5:$A$10</c:f>
@@ -3373,11 +3446,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="498186848"/>
-        <c:axId val="498187392"/>
+        <c:axId val="788038512"/>
+        <c:axId val="788045040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="498186848"/>
+        <c:axId val="788038512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498187392"/>
+        <c:crossAx val="788045040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3428,7 +3501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498187392"/>
+        <c:axId val="788045040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498186848"/>
+        <c:crossAx val="788038512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3493,7 +3566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3607,7 +3679,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3644,9 +3715,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3726,7 +3795,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3764,9 +3832,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3801,7 +3867,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3838,9 +3903,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3852,6 +3915,66 @@
               <a:lumMod val="60000"/>
               <a:lumOff val="40000"/>
             </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3932,7 +4055,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4017,64 +4139,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Progress!$A$42:$A$49</c:f>
@@ -4144,64 +4208,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Progress!$A$42:$A$49</c:f>
@@ -4268,64 +4274,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Progress!$A$42:$A$49</c:f>
@@ -4467,64 +4415,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Progress!$A$42:$A$49</c:f>
@@ -4633,7 +4523,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4719,11 +4608,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="410921968"/>
-        <c:axId val="1004943680"/>
+        <c:axId val="788125648"/>
+        <c:axId val="788131088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="410921968"/>
+        <c:axId val="788125648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,7 +4655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1004943680"/>
+        <c:crossAx val="788131088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4774,7 +4663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1004943680"/>
+        <c:axId val="788131088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4825,7 +4714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410921968"/>
+        <c:crossAx val="788125648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4839,7 +4728,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9499,7 +9387,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="113" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
   <location ref="A39:P49" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -9697,7 +9585,7 @@
     <dataField name="Count of Sl No" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="75">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
@@ -9705,7 +9593,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="10">
+  <chartFormats count="14">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9829,6 +9717,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="15" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9840,7 +9788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="113" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -9984,7 +9932,7 @@
   <dataFields count="1">
     <dataField name="Count of Sl No" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10002,6 +9950,18 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -10279,14 +10239,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K251"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C241" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B263" sqref="B263"/>
+      <selection pane="bottomRight" activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10371,7 +10330,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10435,7 +10394,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -10499,7 +10458,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -10716,7 +10675,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11057,7 +11016,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -11154,7 +11113,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -11552,7 +11511,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -11583,7 +11542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -11846,7 +11805,7 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -12251,7 +12210,7 @@
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -12344,7 +12303,7 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -12439,7 +12398,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -12557,7 +12516,7 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -14122,7 +14081,7 @@
       </c>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -14415,7 +14374,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -14446,7 +14405,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -14609,7 +14568,7 @@
       </c>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -14838,7 +14797,7 @@
       </c>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -15166,7 +15125,7 @@
       </c>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -15560,7 +15519,7 @@
       </c>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -15690,7 +15649,7 @@
       </c>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -16592,7 +16551,7 @@
       </c>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -16792,7 +16751,7 @@
       </c>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -17882,7 +17841,7 @@
       </c>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -17917,7 +17876,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -18144,7 +18103,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>446</v>
@@ -18177,7 +18136,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>472</v>
@@ -18198,7 +18157,7 @@
         <v>91</v>
       </c>
       <c r="H251" s="10">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>3</v>
@@ -18208,15 +18167,414 @@
       </c>
       <c r="K251" s="4"/>
     </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D252" s="22">
+        <v>1</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F252" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H252" s="52"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K252" s="4"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D253" s="22">
+        <v>1</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F253" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H253" s="52"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K253" s="4"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="D254" s="22">
+        <v>1</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F254" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H254" s="52"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K254" s="4"/>
+    </row>
+    <row r="255" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D255" s="22">
+        <v>1</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F255" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H255" s="52"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K255" s="4"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D256" s="22">
+        <v>1</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F256" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H256" s="52"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K256" s="4"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D257" s="22">
+        <v>1</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F257" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H257" s="52"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K257" s="4"/>
+    </row>
+    <row r="258" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="D258" s="22">
+        <v>1</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F258" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H258" s="52"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K258" s="4"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D259" s="22">
+        <v>1</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F259" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H259" s="52"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K259" s="4"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D260" s="22">
+        <v>1</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F260" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H260" s="52"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K260" s="4"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D261" s="22">
+        <v>1</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F261" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H261" s="52"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K261" s="4"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D262" s="22">
+        <v>1</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F262" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H262" s="52"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K262" s="4"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D263" s="22">
+        <v>1</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F263" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H263" s="52"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K263" s="4"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D264" s="22">
+        <v>1</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F264" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H264" s="52"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K264" s="4"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D265" s="22">
+        <v>1</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F265" s="10">
+        <v>45111</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H265" s="52"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K265" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K251">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Completed"/>
-        <filter val="YTS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K265"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -18278,7 +18636,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J240:J1048576 J186:J190</xm:sqref>
+          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="66" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">
@@ -19295,7 +19653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
+    <sheetView topLeftCell="M31" workbookViewId="0">
       <selection activeCell="Y66" sqref="Y66"/>
     </sheetView>
   </sheetViews>

--- a/Requirements/Requirments_v6.0.xlsx
+++ b/Requirements/Requirments_v6.0.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="509">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1563,6 +1563,9 @@
   </si>
   <si>
     <t>In home page, add open invoice list for Case_to_case, dedicated and exclusive customers</t>
+  </si>
+  <si>
+    <t>Dispatch add/edit not getting saved</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2352,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="111">
     <dxf>
       <fill>
         <patternFill>
@@ -2384,6 +2387,9 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -2454,219 +2460,6 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -3982,11 +3775,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-2058279488"/>
-        <c:axId val="-2058272960"/>
+        <c:axId val="-1989892256"/>
+        <c:axId val="-1989880288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2058279488"/>
+        <c:axId val="-1989892256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058272960"/>
+        <c:crossAx val="-1989880288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4037,7 +3830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058272960"/>
+        <c:axId val="-1989880288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +3881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058279488"/>
+        <c:crossAx val="-1989892256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6162,11 +5955,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-2058271872"/>
-        <c:axId val="-2058286016"/>
+        <c:axId val="-1989872672"/>
+        <c:axId val="-1989867232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2058271872"/>
+        <c:axId val="-1989872672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6209,7 +6002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058286016"/>
+        <c:crossAx val="-1989867232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6217,7 +6010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058286016"/>
+        <c:axId val="-1989867232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6254,7 +6047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058271872"/>
+        <c:crossAx val="-1989872672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11399,7 +11192,7 @@
     <dataField name="Count of Sl No" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="45">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
@@ -12121,13 +11914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K279"/>
+  <dimension ref="A1:K280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B278" sqref="B278"/>
+      <selection pane="bottomRight" activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20973,6 +20766,39 @@
         <v>41</v>
       </c>
       <c r="K279" s="5"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="3">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C280" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D280" s="52">
+        <v>1</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F280" s="7">
+        <v>45134</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H280" s="7">
+        <v>45134</v>
+      </c>
+      <c r="I280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J280" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K280" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K275"/>
@@ -21037,7 +20863,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J280:J1048576 J269:J273 J257 J259:J265</xm:sqref>
+          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J281:J1048576 J269:J273 J257 J259:J265</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="101" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">
@@ -22081,7 +21907,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J274:J279</xm:sqref>
+          <xm:sqref>J274:J280</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="6" operator="containsText" id="{D10F93B0-51A1-4595-A962-E4FFA9DB81E3}">
